--- a/report/report com numpy.xlsx
+++ b/report/report com numpy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="4" sheetId="1" r:id="rId1"/>
@@ -499,11 +499,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="520729600"/>
-        <c:axId val="519307840"/>
+        <c:axId val="517395456"/>
+        <c:axId val="513081920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="520729600"/>
+        <c:axId val="517395456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -532,7 +532,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="519307840"/>
+        <c:crossAx val="513081920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -540,9 +540,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="519307840"/>
+        <c:axId val="513081920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -570,7 +571,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="520729600"/>
+        <c:crossAx val="517395456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -893,11 +894,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="520731136"/>
-        <c:axId val="519310144"/>
+        <c:axId val="517396992"/>
+        <c:axId val="513084224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="520731136"/>
+        <c:axId val="517396992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -926,7 +927,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="519310144"/>
+        <c:crossAx val="513084224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -934,9 +935,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="519310144"/>
+        <c:axId val="513084224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -969,7 +971,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="520731136"/>
+        <c:crossAx val="517396992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1276,11 +1278,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99473920"/>
-        <c:axId val="519312448"/>
+        <c:axId val="96725504"/>
+        <c:axId val="513086528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99473920"/>
+        <c:axId val="96725504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1314,7 +1316,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="519312448"/>
+        <c:crossAx val="513086528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1322,7 +1324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="519312448"/>
+        <c:axId val="513086528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -1353,7 +1355,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99473920"/>
+        <c:crossAx val="96725504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1657,11 +1659,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="546588672"/>
-        <c:axId val="519314752"/>
+        <c:axId val="519264256"/>
+        <c:axId val="513088832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="546588672"/>
+        <c:axId val="519264256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1671,7 +1673,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="519314752"/>
+        <c:crossAx val="513088832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1679,7 +1681,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="519314752"/>
+        <c:axId val="513088832"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1692,7 +1694,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="546588672"/>
+        <c:crossAx val="519264256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1746,13 +1748,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2132,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S39" sqref="S39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11642,8 +11644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13227,7 +13229,7 @@
   <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13595,8 +13597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U55" sqref="U55"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13868,7 +13870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>

--- a/report/report com numpy.xlsx
+++ b/report/report com numpy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="4" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="15768" sheetId="7" r:id="rId7"/>
     <sheet name="GráficoDistorsão" sheetId="8" r:id="rId8"/>
     <sheet name="Tempo" sheetId="9" r:id="rId9"/>
+    <sheet name="TempoDistância" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="42">
   <si>
     <t>case</t>
   </si>
@@ -140,14 +141,24 @@
   <si>
     <t>valores descartados</t>
   </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Tempo</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -178,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -193,6 +204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -314,25 +326,25 @@
                 <c:formatCode>#,##0.000000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.4440119999999999</c:v>
+                  <c:v>5.5611920000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2220059999999999</c:v>
+                  <c:v>2.7805960000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.611003</c:v>
+                  <c:v>1.390298</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.80550100000000002</c:v>
+                  <c:v>0.69514900000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.40275100000000003</c:v>
+                  <c:v>0.34757500000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.201375</c:v>
+                  <c:v>0.173787</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10263600000000001</c:v>
+                  <c:v>8.8575000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -499,11 +511,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="517395456"/>
-        <c:axId val="513081920"/>
+        <c:axId val="43922944"/>
+        <c:axId val="58768128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="517395456"/>
+        <c:axId val="43922944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -532,7 +544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="513081920"/>
+        <c:crossAx val="58768128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -540,7 +552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="513081920"/>
+        <c:axId val="58768128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -571,7 +583,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="517395456"/>
+        <c:crossAx val="43922944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -709,25 +721,25 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.4440119999999999</c:v>
+                  <c:v>5.5611920000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2220059999999999</c:v>
+                  <c:v>2.7805960000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.611003</c:v>
+                  <c:v>1.390298</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.80550100000000002</c:v>
+                  <c:v>0.69514900000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.40275100000000003</c:v>
+                  <c:v>0.34757500000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.201375</c:v>
+                  <c:v>0.173787</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10263600000000001</c:v>
+                  <c:v>8.8575000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -894,11 +906,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="517396992"/>
-        <c:axId val="513084224"/>
+        <c:axId val="43924992"/>
+        <c:axId val="530031744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="517396992"/>
+        <c:axId val="43924992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -927,7 +939,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="513084224"/>
+        <c:crossAx val="530031744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -935,7 +947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="513084224"/>
+        <c:axId val="530031744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -971,7 +983,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="517396992"/>
+        <c:crossAx val="43924992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1278,11 +1290,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96725504"/>
-        <c:axId val="513086528"/>
+        <c:axId val="43959808"/>
+        <c:axId val="530034048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96725504"/>
+        <c:axId val="43959808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1316,7 +1328,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="513086528"/>
+        <c:crossAx val="530034048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1324,7 +1336,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="513086528"/>
+        <c:axId val="530034048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000"/>
@@ -1355,7 +1367,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96725504"/>
+        <c:crossAx val="43959808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1659,11 +1671,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="519264256"/>
-        <c:axId val="513088832"/>
+        <c:axId val="43961344"/>
+        <c:axId val="530036352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="519264256"/>
+        <c:axId val="43961344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1673,7 +1685,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="513088832"/>
+        <c:crossAx val="530036352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1681,7 +1693,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="513088832"/>
+        <c:axId val="530036352"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1694,7 +1706,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="519264256"/>
+        <c:crossAx val="43961344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4039,6 +4051,37 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="8">
+        <v>911.79767767900103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U36"/>
@@ -13597,8 +13640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13635,7 +13678,7 @@
         <v>7.6784705333333303</v>
       </c>
       <c r="D2" s="5">
-        <v>6.4440119999999999</v>
+        <v>5.5611920000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -13651,7 +13694,7 @@
         <v>2.8204353666666662</v>
       </c>
       <c r="D3" s="5">
-        <v>3.2220059999999999</v>
+        <v>2.7805960000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -13667,7 +13710,7 @@
         <v>1.1177630000000001</v>
       </c>
       <c r="D4" s="5">
-        <v>1.611003</v>
+        <v>1.390298</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -13683,7 +13726,7 @@
         <v>0.50314253333333325</v>
       </c>
       <c r="D5" s="5">
-        <v>0.80550100000000002</v>
+        <v>0.69514900000000002</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -13699,7 +13742,7 @@
         <v>0.23624886666666661</v>
       </c>
       <c r="D6" s="5">
-        <v>0.40275100000000003</v>
+        <v>0.34757500000000002</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -13715,7 +13758,7 @@
         <v>0.11438559999999995</v>
       </c>
       <c r="D7" s="5">
-        <v>0.201375</v>
+        <v>0.173787</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -13731,7 +13774,7 @@
         <v>5.7897166666666666E-2</v>
       </c>
       <c r="D8" s="5">
-        <v>0.10263600000000001</v>
+        <v>8.8575000000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -13761,7 +13804,7 @@
         <v>9.9409500000000008</v>
       </c>
       <c r="D29" s="3">
-        <v>6.4440119999999999</v>
+        <v>5.5611920000000001</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -13777,7 +13820,7 @@
         <v>3.5617489999999998</v>
       </c>
       <c r="D30" s="3">
-        <v>3.2220059999999999</v>
+        <v>2.7805960000000001</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -13793,7 +13836,7 @@
         <v>1.391772</v>
       </c>
       <c r="D31" s="3">
-        <v>1.611003</v>
+        <v>1.390298</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -13809,7 +13852,7 @@
         <v>0.59189899999999995</v>
       </c>
       <c r="D32" s="3">
-        <v>0.80550100000000002</v>
+        <v>0.69514900000000002</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -13825,7 +13868,7 @@
         <v>0.26250000000000001</v>
       </c>
       <c r="D33" s="3">
-        <v>0.40275100000000003</v>
+        <v>0.34757500000000002</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -13841,7 +13884,7 @@
         <v>0.13823099999999999</v>
       </c>
       <c r="D34" s="3">
-        <v>0.201375</v>
+        <v>0.173787</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -13857,7 +13900,7 @@
         <v>6.4656000000000005E-2</v>
       </c>
       <c r="D35" s="3">
-        <v>0.10263600000000001</v>
+        <v>8.8575000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -13870,8 +13913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/report/report com numpy.xlsx
+++ b/report/report com numpy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="4" sheetId="1" r:id="rId1"/>
@@ -496,7 +496,7 @@
                   <c:v>0.1158486</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7258058823529412E-2</c:v>
+                  <c:v>5.7639956521739123E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -532,7 +532,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-BR"/>
-                  <a:t>Dimensão do espaço projetado</a:t>
+                  <a:t>Dimensão do espaço projetado 'n'</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -891,7 +891,7 @@
                   <c:v>0.14049500000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.1228999999999999E-2</c:v>
+                  <c:v>6.7823999999999995E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -927,7 +927,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-BR"/>
-                  <a:t>Dimensão do espaço projetado</a:t>
+                  <a:t>Dimensão do espaço projetado 'n'</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1043,7 +1043,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> Geração  da matriz e Projeção dos dados para cada N</a:t>
+              <a:t> Geração  da matriz e Projeção dos dados para cada 'n'</a:t>
             </a:r>
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
@@ -1223,7 +1223,7 @@
                   <c:v>1081.9067853333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4153.1334111666665</c:v>
+                  <c:v>4145.6416318888887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1270,7 +1270,7 @@
                   <c:v>314.17242946666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1260.0896339999999</c:v>
+                  <c:v>1260.9557157777776</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4848.9660479999993</c:v>
@@ -1315,7 +1315,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="pt-BR" baseline="0"/>
-                  <a:t> do espaço projetado</a:t>
+                  <a:t> do espaço projetado 'n'</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-BR"/>
               </a:p>
@@ -1604,7 +1604,7 @@
                   <c:v>1081.9067853333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4153.1334111666665</c:v>
+                  <c:v>4145.6416318888887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1651,7 +1651,7 @@
                   <c:v>314.17242946666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1260.0896339999999</c:v>
+                  <c:v>1260.9557157777776</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4848.9660479999993</c:v>
@@ -11687,8 +11687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12200,8 +12200,20 @@
       <c r="P9">
         <v>0.112718</v>
       </c>
+      <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="S9">
+        <v>1260.9272060000001</v>
+      </c>
+      <c r="T9">
+        <v>17.433938000000001</v>
+      </c>
       <c r="U9">
         <v>0.10782700000000001</v>
+      </c>
+      <c r="X9">
+        <v>0.104809</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -12238,8 +12250,20 @@
       <c r="P10">
         <v>0.13948099999999999</v>
       </c>
+      <c r="R10">
+        <v>8</v>
+      </c>
+      <c r="S10">
+        <v>1261.7400500000001</v>
+      </c>
+      <c r="T10">
+        <v>17.479734000000001</v>
+      </c>
       <c r="U10">
         <v>0.11851399999999999</v>
+      </c>
+      <c r="X10">
+        <v>0.121838</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -12276,8 +12300,20 @@
       <c r="P11">
         <v>0.119273</v>
       </c>
+      <c r="R11">
+        <v>9</v>
+      </c>
+      <c r="S11">
+        <v>1265.3963819999999</v>
+      </c>
+      <c r="T11">
+        <v>17.433890000000002</v>
+      </c>
       <c r="U11">
         <v>0.116282</v>
+      </c>
+      <c r="X11">
+        <v>0.10964</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -13204,15 +13240,15 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="3">
         <f>AVERAGE(R3:R33)</f>
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="S34" s="3">
         <f>AVERAGE(S3:S33)</f>
-        <v>1260.0896339999999</v>
+        <v>1260.9557157777776</v>
       </c>
       <c r="T34" s="3">
         <f>AVERAGE(T3:T33)</f>
-        <v>17.442033666666664</v>
+        <v>17.444418222222218</v>
       </c>
       <c r="U34" s="3">
         <f>AVERAGE(U3:U33)</f>
@@ -13272,7 +13308,7 @@
   <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13481,6 +13517,63 @@
         <v>5.8736999999999998E-2</v>
       </c>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4134.7666479999998</v>
+      </c>
+      <c r="C9">
+        <v>66.507441999999998</v>
+      </c>
+      <c r="D9">
+        <v>5.8777000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>4132.008366</v>
+      </c>
+      <c r="C10">
+        <v>66.519696999999994</v>
+      </c>
+      <c r="D10">
+        <v>5.5812E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>4125.1992060000002</v>
+      </c>
+      <c r="C11">
+        <v>66.469773000000004</v>
+      </c>
+      <c r="D11">
+        <v>6.7823999999999995E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>6.2438E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>5.5362000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>5.2118999999999999E-2</v>
+      </c>
+    </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>5.4601999999999998E-2</v>
@@ -13575,19 +13668,19 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <f>AVERAGE(A3:A33)</f>
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="B34" s="3">
         <f>AVERAGE(B3:B33)</f>
-        <v>4153.1334111666665</v>
+        <v>4145.6416318888887</v>
       </c>
       <c r="C34" s="3">
         <f>AVERAGE(C3:C33)</f>
-        <v>66.52613083333334</v>
+        <v>66.517077444444439</v>
       </c>
       <c r="D34" s="3">
         <f>AVERAGE(D3:D33)</f>
-        <v>5.7258058823529412E-2</v>
+        <v>5.7639956521739123E-2</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3">
@@ -13610,7 +13703,7 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D35">
         <f>MIN(D3:D33)</f>
-        <v>5.3879999999999997E-2</v>
+        <v>5.2118999999999999E-2</v>
       </c>
       <c r="I35">
         <f>MIN(I3:I33)</f>
@@ -13620,7 +13713,7 @@
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D36">
         <f>MAX(D3:D33)</f>
-        <v>6.1228999999999999E-2</v>
+        <v>6.7823999999999995E-2</v>
       </c>
       <c r="I36">
         <f>MAX(I3:I33)</f>
@@ -13640,8 +13733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T47" sqref="T47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13767,7 +13860,7 @@
       </c>
       <c r="B8">
         <f>'15768'!D34</f>
-        <v>5.7258058823529412E-2</v>
+        <v>5.7639956521739123E-2</v>
       </c>
       <c r="C8">
         <f>'15768'!I34</f>
@@ -13893,7 +13986,7 @@
       </c>
       <c r="B35" s="3">
         <f>'15768'!D36</f>
-        <v>6.1228999999999999E-2</v>
+        <v>6.7823999999999995E-2</v>
       </c>
       <c r="C35" s="3">
         <f>'15768'!I36</f>
@@ -13914,7 +14007,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14065,7 +14158,7 @@
       </c>
       <c r="E7" s="3">
         <f>'4096'!S34</f>
-        <v>1260.0896339999999</v>
+        <v>1260.9557157777776</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -14076,7 +14169,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3">
         <f>'15768'!B34</f>
-        <v>4153.1334111666665</v>
+        <v>4145.6416318888887</v>
       </c>
       <c r="E8" s="3">
         <f>'15768'!G34</f>

--- a/report/report com numpy.xlsx
+++ b/report/report com numpy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="4" sheetId="1" r:id="rId1"/>
@@ -15,15 +15,15 @@
     <sheet name="4096" sheetId="6" r:id="rId6"/>
     <sheet name="15768" sheetId="7" r:id="rId7"/>
     <sheet name="GráficoDistorsão" sheetId="8" r:id="rId8"/>
-    <sheet name="Tempo" sheetId="9" r:id="rId9"/>
-    <sheet name="TempoDistância" sheetId="10" r:id="rId10"/>
+    <sheet name="TempoGeração" sheetId="9" r:id="rId9"/>
+    <sheet name="TempoProjeção" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="10">
   <si>
     <t>case</t>
   </si>
@@ -40,21 +40,6 @@
     <t>distortion</t>
   </si>
   <si>
-    <t>Achlioptas V1</t>
-  </si>
-  <si>
-    <t>Achlioptas V2</t>
-  </si>
-  <si>
-    <t>Random Projection V1</t>
-  </si>
-  <si>
-    <t>gen_proj_time</t>
-  </si>
-  <si>
-    <t>Random Projection V2</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -67,90 +52,6 @@
     <t>Johnson-Lindenstrauss</t>
   </si>
   <si>
-    <t>0.114135</t>
-  </si>
-  <si>
-    <t>0.108016</t>
-  </si>
-  <si>
-    <t>0.111021</t>
-  </si>
-  <si>
-    <t>0.109238</t>
-  </si>
-  <si>
-    <t>0.112177</t>
-  </si>
-  <si>
-    <t>0.129712</t>
-  </si>
-  <si>
-    <t>0.106992</t>
-  </si>
-  <si>
-    <t>0.129315</t>
-  </si>
-  <si>
-    <t>0.120049</t>
-  </si>
-  <si>
-    <t>0.114306</t>
-  </si>
-  <si>
-    <t>0.120572</t>
-  </si>
-  <si>
-    <t>0.112553</t>
-  </si>
-  <si>
-    <t>0.110194</t>
-  </si>
-  <si>
-    <t>0.124284</t>
-  </si>
-  <si>
-    <t>0.122666</t>
-  </si>
-  <si>
-    <t>0.110271</t>
-  </si>
-  <si>
-    <t>0.119242</t>
-  </si>
-  <si>
-    <t>0.112105</t>
-  </si>
-  <si>
-    <t>0.110821</t>
-  </si>
-  <si>
-    <t>0.115579</t>
-  </si>
-  <si>
-    <t>v1 Achlioptas</t>
-  </si>
-  <si>
-    <t>v1 Projeção Aleatória</t>
-  </si>
-  <si>
-    <t>v2 Achlioptas</t>
-  </si>
-  <si>
-    <t>v2 Projeção Aleatória</t>
-  </si>
-  <si>
-    <t>valores descartados</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Tempo</t>
-  </si>
-  <si>
-    <t>Original</t>
-  </si>
-  <si>
     <t>Random Projection</t>
   </si>
 </sst>
@@ -158,10 +59,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000000"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -192,7 +92,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -204,7 +104,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -260,6 +159,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -407,25 +307,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>7.697070133333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8022820999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1261730999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49924750000000023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23642030000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11382506666666664</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.11438559999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.7897166666666666E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -483,25 +383,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7.6708909000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.8472499666666664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.1091501999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.50461579999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.23064756666666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1158486</c:v>
+                  <c:v>0.11465913333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7639956521739123E-2</c:v>
+                  <c:v>5.8101133333333339E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -542,6 +442,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -580,6 +481,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -652,6 +554,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -799,25 +702,25 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>9.8003230000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.58399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3175939999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56859400000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26380999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12560299999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.13823099999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.4656000000000005E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -875,25 +778,25 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10.23197</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.3739530000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.2777350000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.63019800000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.27759400000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14049500000000001</c:v>
+                  <c:v>0.12965599999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.7823999999999995E-2</c:v>
+                  <c:v>6.3474000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -934,6 +837,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -977,6 +881,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1043,12 +948,13 @@
             </a:r>
             <a:r>
               <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> Geração  da matriz e Projeção dos dados para cada 'n'</a:t>
+              <a:t> Geração da matriz dos dados para cada 'n'</a:t>
             </a:r>
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1072,18 +978,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tempo!$B$1</c:f>
+              <c:f>TempoGeração!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>v1 Achlioptas</c:v>
+                  <c:v>Achlioptas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Tempo!$A$2:$A$8</c:f>
+              <c:f>TempoGeração!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1113,27 +1019,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tempo!$B$2:$B$8</c:f>
+              <c:f>TempoGeração!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.74541733333333327</c:v>
+                  <c:v>0.1805052</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4878425333333332</c:v>
+                  <c:v>0.75396563333333322</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9104290666666666</c:v>
+                  <c:v>3.3640925333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.44728666666667</c:v>
+                  <c:v>12.931406266666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>133.80866813333336</c:v>
+                  <c:v>50.183372666666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>493.92991213333335</c:v>
+                  <c:v>197.73839633333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>746.30416586666672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1145,134 +1054,41 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tempo!$C$1</c:f>
+              <c:f>TempoGeração!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>v1 Projeção Aleatória</c:v>
+                  <c:v>Projeção Aleatória</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>Tempo!$C$2:$C$8</c:f>
+              <c:f>TempoGeração!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.9508112666666666</c:v>
+                  <c:v>0.36818196666666664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0989739333333333</c:v>
+                  <c:v>1.3565160666666665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9993025333333323</c:v>
+                  <c:v>5.5160740666666657</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53.106131500000004</c:v>
+                  <c:v>21.858986233333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>173.30700596666668</c:v>
+                  <c:v>94.006543599999986</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>396.39927540000008</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tempo!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>v2 Achlioptas</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:val>
-            <c:numRef>
-              <c:f>Tempo!$D$2:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
+                  <c:v>345.69516433333325</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1081.9067853333333</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4145.6416318888887</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tempo!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>v2 Projeção Aleatória</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Tempo!$E$2:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1260.9557157777776</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4848.9660479999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1280,6 +1096,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1306,20 +1123,21 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1200"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR"/>
+                  <a:rPr lang="pt-BR" sz="1200"/>
                   <a:t>Dimensão</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:rPr lang="pt-BR" sz="1200" baseline="0"/>
                   <a:t> do espaço projetado 'n'</a:t>
                 </a:r>
-                <a:endParaRPr lang="pt-BR"/>
+                <a:endParaRPr lang="pt-BR" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1337,7 +1155,6 @@
         <c:axId val="357510224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1349,15 +1166,16 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1200"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR"/>
+                  <a:rPr lang="pt-BR" sz="1200"/>
                   <a:t>Tempo (segundos)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
@@ -1375,10 +1193,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13549267879976543"/>
-          <c:y val="8.11123267125856E-2"/>
-          <c:w val="0.7385426821647294"/>
-          <c:h val="4.7183074718399928E-2"/>
+          <c:x val="0.33850473818977755"/>
+          <c:y val="8.3496412263535547E-2"/>
+          <c:w val="0.36997081658498981"/>
+          <c:h val="5.2414229735426282E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1420,29 +1238,32 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Escala</a:t>
+              <a:t>Tempo de</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> Logarítmica</a:t>
+              <a:t> Projeção dos dados para cada 'n'</a:t>
             </a:r>
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.16889606504030599"/>
-          <c:y val="2.3952103337294965E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9313419155938841E-2"/>
+          <c:y val="0.13933457958043013"/>
+          <c:w val="0.91676886543028269"/>
+          <c:h val="0.76405976650178997"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1451,18 +1272,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tempo!$B$1</c:f>
+              <c:f>TempoProjeção!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>v1 Achlioptas</c:v>
+                  <c:v>Achlioptas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Tempo!$A$2:$A$8</c:f>
+              <c:f>TempoProjeção!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1492,27 +1313,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tempo!$B$2:$B$8</c:f>
+              <c:f>TempoProjeção!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.74541733333333327</c:v>
+                  <c:v>0.56491213333333323</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4878425333333332</c:v>
+                  <c:v>0.73387689999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9104290666666666</c:v>
+                  <c:v>1.546336533333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.44728666666667</c:v>
+                  <c:v>31.515880400000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>133.80866813333336</c:v>
+                  <c:v>83.625295466666685</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>493.92991213333335</c:v>
+                  <c:v>296.19151579999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>989.67138420000026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1524,134 +1348,71 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tempo!$C$1</c:f>
+              <c:f>TempoProjeção!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>v1 Projeção Aleatória</c:v>
+                  <c:v>Projeção Aleatória</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>TempoProjeção!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tempo!$C$2:$C$8</c:f>
+              <c:f>TempoProjeção!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.9508112666666666</c:v>
+                  <c:v>0.58262930000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0989739333333333</c:v>
+                  <c:v>0.74245786666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9993025333333323</c:v>
+                  <c:v>1.4832284666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53.106131500000004</c:v>
+                  <c:v>31.247145266666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>173.30700596666668</c:v>
+                  <c:v>79.300462366666679</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>396.39927540000008</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tempo!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>v2 Achlioptas</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:val>
-            <c:numRef>
-              <c:f>Tempo!$D$2:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
+                  <c:v>295.23338189999987</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1081.9067853333333</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4145.6416318888887</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tempo!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>v2 Projeção Aleatória</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Tempo!$E$2:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1260.9557157777776</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4848.9660479999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1668,21 +1429,45 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="357507872"/>
-        <c:axId val="357507480"/>
+        <c:axId val="429685688"/>
+        <c:axId val="429686080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="357507872"/>
+        <c:axId val="429685688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1200"/>
+                  <a:t>Dimensão</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1200" baseline="0"/>
+                  <a:t> do espaço projetado 'n'</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="357507480"/>
+        <c:crossAx val="429686080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1690,24 +1475,55 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="357507480"/>
+        <c:axId val="429686080"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="5000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1200"/>
+                  <a:t>Tempo (segundos)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="357507872"/>
+        <c:crossAx val="429685688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33850473818977755"/>
+          <c:y val="8.3496412263535547E-2"/>
+          <c:w val="0.36997081658498981"/>
+          <c:h val="5.2414229735426282E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1791,16 +1607,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1819,22 +1635,27 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1845,7 +1666,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2144,7 +1965,7 @@
   <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2161,20 +1982,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="G1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="G1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -3269,32 +3090,123 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>39</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="7">
-        <v>911.79767767900103</v>
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <f>'4'!C34</f>
+        <v>0.56491213333333323</v>
+      </c>
+      <c r="C2" s="2">
+        <f>'4'!I34</f>
+        <v>0.58262930000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2">
+        <f>'16'!C34</f>
+        <v>0.73387689999999994</v>
+      </c>
+      <c r="C3" s="2">
+        <f>'16'!I34</f>
+        <v>0.74245786666666669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>64</v>
+      </c>
+      <c r="B4" s="2">
+        <f>'64'!C34</f>
+        <v>1.546336533333333</v>
+      </c>
+      <c r="C4" s="2">
+        <f>'64'!I34</f>
+        <v>1.4832284666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>256</v>
+      </c>
+      <c r="B5" s="2">
+        <f>'256'!C34</f>
+        <v>31.515880400000004</v>
+      </c>
+      <c r="C5" s="2">
+        <f>'256'!I34</f>
+        <v>31.247145266666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1024</v>
+      </c>
+      <c r="B6" s="2">
+        <f>'1024'!C34</f>
+        <v>83.625295466666685</v>
+      </c>
+      <c r="C6" s="2">
+        <f>'1024'!I34</f>
+        <v>79.300462366666679</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4096</v>
+      </c>
+      <c r="B7" s="2">
+        <f>'4096'!C34</f>
+        <v>296.19151579999999</v>
+      </c>
+      <c r="C7" s="2">
+        <f>'4096'!I34</f>
+        <v>295.23338189999987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>15768</v>
+      </c>
+      <c r="B8" s="2">
+        <f>'15768'!C34</f>
+        <v>989.67138420000026</v>
+      </c>
+      <c r="C8" s="2" t="e">
+        <f>'15768'!H34</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3309,20 +3221,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="G1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="G1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
       <c r="L1" s="6"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -4428,20 +4340,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="G1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="G1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -5547,20 +5459,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="G1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="G1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -6669,20 +6581,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="G1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="G1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -7777,8 +7689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E33"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7796,33 +7708,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="G1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="M1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="G1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
       <c r="Q1" s="3"/>
-      <c r="R1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -7855,34 +7763,8 @@
       <c r="K2" t="s">
         <v>4</v>
       </c>
-      <c r="M2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" s="8"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -7904,46 +7786,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>377.27100799999999</v>
+        <v>338.22578399999998</v>
       </c>
       <c r="I3">
-        <v>19.353363000000002</v>
+        <v>294.84693399999998</v>
       </c>
       <c r="J3">
-        <v>17.443904</v>
+        <v>15.532382</v>
       </c>
       <c r="K3">
-        <v>0.10673100000000001</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1085.4392310000001</v>
-      </c>
-      <c r="O3">
-        <v>17.441880999999999</v>
-      </c>
-      <c r="P3">
-        <v>0.107027</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1259.1013559999999</v>
-      </c>
-      <c r="T3">
-        <v>17.440258</v>
-      </c>
-      <c r="U3">
-        <v>0.10673100000000001</v>
-      </c>
-      <c r="W3">
-        <v>0.114771</v>
-      </c>
-      <c r="X3">
-        <v>0.12020699999999999</v>
+        <v>0.11629299999999999</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -7966,46 +7818,16 @@
         <v>2</v>
       </c>
       <c r="H4">
-        <v>377.18733099999997</v>
+        <v>341.23726099999999</v>
       </c>
       <c r="I4">
-        <v>19.563179000000002</v>
+        <v>301.99076000000002</v>
       </c>
       <c r="J4">
-        <v>17.456199999999999</v>
+        <v>15.951169999999999</v>
       </c>
       <c r="K4">
-        <v>0.11230999999999999</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4">
-        <v>1087.356272</v>
-      </c>
-      <c r="O4">
-        <v>17.433833</v>
-      </c>
-      <c r="P4">
-        <v>0.114731</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <v>1256.858823</v>
-      </c>
-      <c r="T4">
-        <v>17.432848</v>
-      </c>
-      <c r="U4">
-        <v>0.11230999999999999</v>
-      </c>
-      <c r="W4">
-        <v>0.12684100000000001</v>
-      </c>
-      <c r="X4">
-        <v>0.118607</v>
+        <v>0.110718</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -8028,46 +7850,16 @@
         <v>3</v>
       </c>
       <c r="H5">
-        <v>377.12810500000001</v>
+        <v>365.15774699999997</v>
       </c>
       <c r="I5">
-        <v>19.427098999999998</v>
+        <v>290.19009599999998</v>
       </c>
       <c r="J5">
-        <v>17.446897</v>
+        <v>19.078056</v>
       </c>
       <c r="K5">
-        <v>0.13823099999999999</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="N5">
-        <v>1084.4983119999999</v>
-      </c>
-      <c r="O5">
-        <v>17.417589</v>
-      </c>
-      <c r="P5">
-        <v>0.113737</v>
-      </c>
-      <c r="R5">
-        <v>3</v>
-      </c>
-      <c r="S5">
-        <v>1257.100093</v>
-      </c>
-      <c r="T5">
-        <v>17.471095999999999</v>
-      </c>
-      <c r="U5">
-        <v>0.13823099999999999</v>
-      </c>
-      <c r="W5">
-        <v>0.11382</v>
-      </c>
-      <c r="X5">
-        <v>0.107945</v>
+        <v>0.10725700000000001</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -8090,46 +7882,16 @@
         <v>4</v>
       </c>
       <c r="H6">
-        <v>376.94543499999997</v>
+        <v>336.39616999999998</v>
       </c>
       <c r="I6">
-        <v>19.541436999999998</v>
+        <v>299.73556100000002</v>
       </c>
       <c r="J6">
-        <v>17.457689999999999</v>
+        <v>15.536564</v>
       </c>
       <c r="K6">
-        <v>0.109498</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-      <c r="N6">
-        <v>1083.8522479999999</v>
-      </c>
-      <c r="O6">
-        <v>17.639932000000002</v>
-      </c>
-      <c r="P6">
-        <v>0.11194999999999999</v>
-      </c>
-      <c r="R6">
-        <v>4</v>
-      </c>
-      <c r="S6">
-        <v>1261.2875670000001</v>
-      </c>
-      <c r="T6">
-        <v>17.431536000000001</v>
-      </c>
-      <c r="U6">
-        <v>0.109498</v>
-      </c>
-      <c r="W6">
-        <v>0.11246</v>
-      </c>
-      <c r="X6">
-        <v>0.107727</v>
+        <v>0.11247600000000001</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -8152,46 +7914,16 @@
         <v>5</v>
       </c>
       <c r="H7">
-        <v>377.27341200000001</v>
+        <v>353.82382999999999</v>
       </c>
       <c r="I7">
-        <v>19.580742000000001</v>
+        <v>302.68534199999999</v>
       </c>
       <c r="J7">
-        <v>17.448740000000001</v>
+        <v>14.700469999999999</v>
       </c>
       <c r="K7">
-        <v>0.128305</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="N7">
-        <v>1072.553439</v>
-      </c>
-      <c r="O7">
-        <v>17.416277000000001</v>
-      </c>
-      <c r="P7">
-        <v>0.117285</v>
-      </c>
-      <c r="R7">
-        <v>5</v>
-      </c>
-      <c r="S7">
-        <v>1259.9248030000001</v>
-      </c>
-      <c r="T7">
-        <v>17.442056999999998</v>
-      </c>
-      <c r="U7">
-        <v>0.128305</v>
-      </c>
-      <c r="W7">
-        <v>0.116741</v>
-      </c>
-      <c r="X7">
-        <v>0.114727</v>
+        <v>0.113478</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -8214,46 +7946,16 @@
         <v>6</v>
       </c>
       <c r="H8">
-        <v>376.69778700000001</v>
+        <v>330.91216100000003</v>
       </c>
       <c r="I8">
-        <v>19.746873000000001</v>
+        <v>297.23166800000001</v>
       </c>
       <c r="J8">
-        <v>17.434805999999998</v>
+        <v>14.97166</v>
       </c>
       <c r="K8">
-        <v>0.105062</v>
-      </c>
-      <c r="M8">
-        <v>6</v>
-      </c>
-      <c r="N8">
-        <v>1077.7412099999999</v>
-      </c>
-      <c r="O8">
-        <v>17.416840000000001</v>
-      </c>
-      <c r="P8">
-        <v>0.11512699999999999</v>
-      </c>
-      <c r="R8">
-        <v>6</v>
-      </c>
-      <c r="S8">
-        <v>1266.2651619999999</v>
-      </c>
-      <c r="T8">
-        <v>17.434407</v>
-      </c>
-      <c r="U8">
-        <v>0.105062</v>
-      </c>
-      <c r="W8">
-        <v>0.11755</v>
-      </c>
-      <c r="X8">
-        <v>0.118824</v>
+        <v>0.111765</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -8276,34 +7978,16 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>377.062794</v>
+        <v>350.04477400000002</v>
       </c>
       <c r="I9">
-        <v>19.474830999999998</v>
+        <v>297.961613</v>
       </c>
       <c r="J9">
-        <v>17.538605</v>
+        <v>14.954518999999999</v>
       </c>
       <c r="K9">
-        <v>0.10782700000000001</v>
-      </c>
-      <c r="P9">
-        <v>0.112718</v>
-      </c>
-      <c r="R9">
-        <v>7</v>
-      </c>
-      <c r="S9">
-        <v>1260.9272060000001</v>
-      </c>
-      <c r="T9">
-        <v>17.433938000000001</v>
-      </c>
-      <c r="U9">
-        <v>0.10782700000000001</v>
-      </c>
-      <c r="X9">
-        <v>0.104809</v>
+        <v>0.118783</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -8326,34 +8010,16 @@
         <v>8</v>
       </c>
       <c r="H10">
-        <v>377.08243499999998</v>
+        <v>337.37268599999999</v>
       </c>
       <c r="I10">
-        <v>19.499811000000001</v>
+        <v>294.87758100000002</v>
       </c>
       <c r="J10">
-        <v>17.444953000000002</v>
+        <v>16.362272999999998</v>
       </c>
       <c r="K10">
-        <v>0.11851399999999999</v>
-      </c>
-      <c r="P10">
-        <v>0.13948099999999999</v>
-      </c>
-      <c r="R10">
-        <v>8</v>
-      </c>
-      <c r="S10">
-        <v>1261.7400500000001</v>
-      </c>
-      <c r="T10">
-        <v>17.479734000000001</v>
-      </c>
-      <c r="U10">
-        <v>0.11851399999999999</v>
-      </c>
-      <c r="X10">
-        <v>0.121838</v>
+        <v>0.117724</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -8376,34 +8042,16 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <v>377.00227100000001</v>
+        <v>360.01008300000001</v>
       </c>
       <c r="I11">
-        <v>19.342891999999999</v>
+        <v>291.54081000000002</v>
       </c>
       <c r="J11">
-        <v>17.442056000000001</v>
+        <v>15.178397</v>
       </c>
       <c r="K11">
-        <v>0.116282</v>
-      </c>
-      <c r="P11">
-        <v>0.119273</v>
-      </c>
-      <c r="R11">
-        <v>9</v>
-      </c>
-      <c r="S11">
-        <v>1265.3963819999999</v>
-      </c>
-      <c r="T11">
-        <v>17.433890000000002</v>
-      </c>
-      <c r="U11">
-        <v>0.116282</v>
-      </c>
-      <c r="X11">
-        <v>0.10964</v>
+        <v>0.115493</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -8426,22 +8074,16 @@
         <v>10</v>
       </c>
       <c r="H12">
-        <v>376.95698299999998</v>
+        <v>330.04010599999998</v>
       </c>
       <c r="I12">
-        <v>19.256056000000001</v>
+        <v>304.53358100000003</v>
       </c>
       <c r="J12">
-        <v>17.443338000000001</v>
+        <v>15.069794</v>
       </c>
       <c r="K12">
-        <v>0.116934</v>
-      </c>
-      <c r="P12">
-        <v>0.10889699999999999</v>
-      </c>
-      <c r="U12">
-        <v>0.116934</v>
+        <v>0.116841</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -8464,22 +8106,16 @@
         <v>11</v>
       </c>
       <c r="H13">
-        <v>377.178337</v>
+        <v>333.05325599999998</v>
       </c>
       <c r="I13">
-        <v>19.604619</v>
+        <v>292.25082700000002</v>
       </c>
       <c r="J13">
-        <v>17.451575999999999</v>
+        <v>15.166092000000001</v>
       </c>
       <c r="K13">
-        <v>0.108017</v>
-      </c>
-      <c r="P13">
-        <v>0.111607</v>
-      </c>
-      <c r="U13">
-        <v>0.108017</v>
+        <v>0.10644099999999999</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -8502,22 +8138,16 @@
         <v>12</v>
       </c>
       <c r="H14">
-        <v>377.03232300000002</v>
+        <v>358.38695100000001</v>
       </c>
       <c r="I14">
-        <v>19.178944000000001</v>
+        <v>293.74751600000002</v>
       </c>
       <c r="J14">
-        <v>17.484138999999999</v>
+        <v>14.944857000000001</v>
       </c>
       <c r="K14">
-        <v>0.122097</v>
-      </c>
-      <c r="P14">
-        <v>0.107236</v>
-      </c>
-      <c r="U14">
-        <v>0.122097</v>
+        <v>0.111057</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -8540,22 +8170,16 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <v>377.84584799999999</v>
+        <v>341.25205999999997</v>
       </c>
       <c r="I15">
-        <v>19.449605999999999</v>
+        <v>293.29533099999998</v>
       </c>
       <c r="J15">
-        <v>17.435334000000001</v>
+        <v>15.164099</v>
       </c>
       <c r="K15">
-        <v>0.10943899999999999</v>
-      </c>
-      <c r="P15">
-        <v>0.132546</v>
-      </c>
-      <c r="U15">
-        <v>0.10943899999999999</v>
+        <v>0.112827</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -8578,22 +8202,16 @@
         <v>14</v>
       </c>
       <c r="H16">
-        <v>379.083527</v>
+        <v>359.62920000000003</v>
       </c>
       <c r="I16">
-        <v>19.612431999999998</v>
+        <v>291.674442</v>
       </c>
       <c r="J16">
-        <v>17.52093</v>
+        <v>14.996302</v>
       </c>
       <c r="K16">
-        <v>0.11013199999999999</v>
-      </c>
-      <c r="P16">
-        <v>0.11794399999999999</v>
-      </c>
-      <c r="U16">
-        <v>0.11013199999999999</v>
+        <v>0.110239</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -8616,22 +8234,16 @@
         <v>15</v>
       </c>
       <c r="H17">
-        <v>377.13049599999999</v>
+        <v>332.68000999999998</v>
       </c>
       <c r="I17">
-        <v>19.354507000000002</v>
+        <v>290.97868699999998</v>
       </c>
       <c r="J17">
-        <v>17.437702999999999</v>
+        <v>15.236357</v>
       </c>
       <c r="K17">
-        <v>0.112785</v>
-      </c>
-      <c r="P17">
-        <v>0.11616600000000001</v>
-      </c>
-      <c r="U17">
-        <v>0.112785</v>
+        <v>0.12560299999999999</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -8654,22 +8266,16 @@
         <v>16</v>
       </c>
       <c r="H18">
-        <v>377.00398899999999</v>
+        <v>353.06473299999999</v>
       </c>
       <c r="I18">
-        <v>19.264120999999999</v>
+        <v>290.28031800000002</v>
       </c>
       <c r="J18">
-        <v>17.438359999999999</v>
+        <v>15.299714</v>
       </c>
       <c r="K18">
-        <v>0.108205</v>
-      </c>
-      <c r="P18">
-        <v>0.10850799999999999</v>
-      </c>
-      <c r="U18">
-        <v>0.108205</v>
+        <v>0.11143</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -8692,22 +8298,16 @@
         <v>17</v>
       </c>
       <c r="H19">
-        <v>376.763688</v>
+        <v>343.83937600000002</v>
       </c>
       <c r="I19">
-        <v>19.244008999999998</v>
+        <v>289.51494600000001</v>
       </c>
       <c r="J19">
-        <v>17.450845999999999</v>
+        <v>15.146433999999999</v>
       </c>
       <c r="K19">
-        <v>0.11756</v>
-      </c>
-      <c r="P19">
-        <v>0.106735</v>
-      </c>
-      <c r="U19">
-        <v>0.11756</v>
+        <v>0.10684100000000001</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -8730,22 +8330,16 @@
         <v>18</v>
       </c>
       <c r="H20">
-        <v>376.65347200000002</v>
+        <v>360.103185</v>
       </c>
       <c r="I20">
-        <v>19.618852</v>
+        <v>288.72721200000001</v>
       </c>
       <c r="J20">
-        <v>17.467452000000002</v>
+        <v>15.070038</v>
       </c>
       <c r="K20">
-        <v>0.11508500000000001</v>
-      </c>
-      <c r="P20">
-        <v>0.121129</v>
-      </c>
-      <c r="U20">
-        <v>0.11508500000000001</v>
+        <v>0.11956899999999999</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -8768,22 +8362,16 @@
         <v>19</v>
       </c>
       <c r="H21">
-        <v>376.19664999999998</v>
+        <v>340.09084999999999</v>
       </c>
       <c r="I21">
-        <v>19.310120999999999</v>
+        <v>291.86058000000003</v>
       </c>
       <c r="J21">
-        <v>17.451084000000002</v>
+        <v>15.017528</v>
       </c>
       <c r="K21">
-        <v>0.113701</v>
-      </c>
-      <c r="P21">
-        <v>0.116511</v>
-      </c>
-      <c r="U21">
-        <v>0.113701</v>
+        <v>0.116031</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
@@ -8806,22 +8394,16 @@
         <v>20</v>
       </c>
       <c r="H22">
-        <v>376.75204200000002</v>
+        <v>365.55447600000002</v>
       </c>
       <c r="I22">
-        <v>19.443455</v>
+        <v>296.781655</v>
       </c>
       <c r="J22">
-        <v>17.441105</v>
+        <v>15.040747</v>
       </c>
       <c r="K22">
-        <v>0.111249</v>
-      </c>
-      <c r="P22">
-        <v>0.109376</v>
-      </c>
-      <c r="U22">
-        <v>0.111249</v>
+        <v>0.121658</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -8844,28 +8426,16 @@
         <v>21</v>
       </c>
       <c r="H23">
-        <v>376.569862</v>
+        <v>332.79856000000001</v>
       </c>
       <c r="I23">
-        <v>19.473782</v>
+        <v>295.96880499999997</v>
       </c>
       <c r="J23">
-        <v>17.453261999999999</v>
+        <v>18.100508000000001</v>
       </c>
       <c r="K23">
-        <v>0.112513</v>
-      </c>
-      <c r="P23">
-        <v>0.14049500000000001</v>
-      </c>
-      <c r="U23">
-        <v>0.112513</v>
-      </c>
-      <c r="W23" t="s">
-        <v>24</v>
-      </c>
-      <c r="X23" t="s">
-        <v>14</v>
+        <v>0.11200499999999999</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
@@ -8888,28 +8458,16 @@
         <v>22</v>
       </c>
       <c r="H24">
-        <v>376.51959799999997</v>
+        <v>339.94188500000001</v>
       </c>
       <c r="I24">
-        <v>19.234670999999999</v>
+        <v>295.168385</v>
       </c>
       <c r="J24">
-        <v>17.454177999999999</v>
+        <v>15.08934</v>
       </c>
       <c r="K24">
-        <v>0.110162</v>
-      </c>
-      <c r="P24">
-        <v>0.119756</v>
-      </c>
-      <c r="U24">
-        <v>0.110162</v>
-      </c>
-      <c r="W24" t="s">
-        <v>25</v>
-      </c>
-      <c r="X24" t="s">
-        <v>15</v>
+        <v>0.107554</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
@@ -8932,28 +8490,16 @@
         <v>23</v>
       </c>
       <c r="H25">
-        <v>376.884974</v>
+        <v>350.73521399999998</v>
       </c>
       <c r="I25">
-        <v>19.342617000000001</v>
+        <v>303.03854100000001</v>
       </c>
       <c r="J25">
-        <v>17.446214000000001</v>
+        <v>15.180144</v>
       </c>
       <c r="K25">
-        <v>0.106019</v>
-      </c>
-      <c r="P25">
-        <v>0.116575</v>
-      </c>
-      <c r="U25">
-        <v>0.106019</v>
-      </c>
-      <c r="W25" t="s">
-        <v>26</v>
-      </c>
-      <c r="X25" t="s">
-        <v>16</v>
+        <v>0.115687</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
@@ -8976,28 +8522,16 @@
         <v>24</v>
       </c>
       <c r="H26">
-        <v>376.49955599999998</v>
+        <v>338.10819099999998</v>
       </c>
       <c r="I26">
-        <v>19.627965</v>
+        <v>294.66979199999997</v>
       </c>
       <c r="J26">
-        <v>17.444879</v>
+        <v>14.914311</v>
       </c>
       <c r="K26">
-        <v>0.11400100000000001</v>
-      </c>
-      <c r="P26">
-        <v>0.11645999999999999</v>
-      </c>
-      <c r="U26">
-        <v>0.11400100000000001</v>
-      </c>
-      <c r="W26" t="s">
-        <v>27</v>
-      </c>
-      <c r="X26" t="s">
-        <v>17</v>
+        <v>0.113968</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -9020,28 +8554,16 @@
         <v>25</v>
       </c>
       <c r="H27">
-        <v>376.619756</v>
+        <v>365.34898399999997</v>
       </c>
       <c r="I27">
-        <v>19.306505999999999</v>
+        <v>290.07393100000002</v>
       </c>
       <c r="J27">
-        <v>17.436959999999999</v>
+        <v>18.036370999999999</v>
       </c>
       <c r="K27">
-        <v>0.112576</v>
-      </c>
-      <c r="P27">
-        <v>0.11730500000000001</v>
-      </c>
-      <c r="U27">
-        <v>0.112576</v>
-      </c>
-      <c r="W27" t="s">
-        <v>28</v>
-      </c>
-      <c r="X27" t="s">
-        <v>18</v>
+        <v>0.11523899999999999</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -9064,28 +8586,16 @@
         <v>26</v>
       </c>
       <c r="H28">
-        <v>376.87402300000002</v>
+        <v>340.78721200000001</v>
       </c>
       <c r="I28">
-        <v>19.609204999999999</v>
+        <v>295.37551500000001</v>
       </c>
       <c r="J28">
-        <v>17.606233</v>
+        <v>15.257334</v>
       </c>
       <c r="K28">
-        <v>0.124316</v>
-      </c>
-      <c r="P28">
-        <v>0.11236</v>
-      </c>
-      <c r="U28">
-        <v>0.124316</v>
-      </c>
-      <c r="W28" t="s">
-        <v>29</v>
-      </c>
-      <c r="X28" t="s">
-        <v>19</v>
+        <v>0.11794300000000001</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
@@ -9108,28 +8618,16 @@
         <v>27</v>
       </c>
       <c r="H29">
-        <v>376.921065</v>
+        <v>337.04748599999999</v>
       </c>
       <c r="I29">
-        <v>19.641525000000001</v>
+        <v>299.14305300000001</v>
       </c>
       <c r="J29">
-        <v>17.457471000000002</v>
+        <v>20.326467000000001</v>
       </c>
       <c r="K29">
-        <v>0.11659</v>
-      </c>
-      <c r="P29">
-        <v>0.107087</v>
-      </c>
-      <c r="U29">
-        <v>0.11659</v>
-      </c>
-      <c r="W29" t="s">
-        <v>30</v>
-      </c>
-      <c r="X29" t="s">
-        <v>20</v>
+        <v>0.11076999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
@@ -9152,28 +8650,16 @@
         <v>28</v>
       </c>
       <c r="H30">
-        <v>376.25594899999999</v>
+        <v>343.98067600000002</v>
       </c>
       <c r="I30">
-        <v>19.440275</v>
+        <v>303.71545700000001</v>
       </c>
       <c r="J30">
-        <v>17.480271999999999</v>
+        <v>15.208441000000001</v>
       </c>
       <c r="K30">
-        <v>0.11620800000000001</v>
-      </c>
-      <c r="P30">
-        <v>0.115734</v>
-      </c>
-      <c r="U30">
-        <v>0.11620800000000001</v>
-      </c>
-      <c r="W30" t="s">
-        <v>31</v>
-      </c>
-      <c r="X30" t="s">
-        <v>21</v>
+        <v>0.10872900000000001</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
@@ -9196,35 +8682,27 @@
         <v>29</v>
       </c>
       <c r="H31" s="2">
-        <v>376.89527500000003</v>
+        <v>335.02078699999998</v>
       </c>
       <c r="I31" s="2">
-        <v>19.519214999999999</v>
+        <v>288.47088600000001</v>
       </c>
       <c r="J31" s="2">
-        <v>17.441623</v>
+        <v>15.194137</v>
       </c>
       <c r="K31" s="2">
-        <v>0.113539</v>
+        <v>0.12160799999999999</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="2">
-        <v>0.112735</v>
-      </c>
+      <c r="P31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
-      <c r="U31" s="2">
-        <v>0.113539</v>
-      </c>
-      <c r="W31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X31" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="U31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -9246,28 +8724,16 @@
         <v>30</v>
       </c>
       <c r="H32">
-        <v>376.24064499999997</v>
+        <v>356.21123599999999</v>
       </c>
       <c r="I32">
-        <v>19.386915999999999</v>
+        <v>296.67163199999999</v>
       </c>
       <c r="J32">
-        <v>17.537264</v>
+        <v>15.03365</v>
       </c>
       <c r="K32">
-        <v>0.11768000000000001</v>
-      </c>
-      <c r="P32">
-        <v>0.10896699999999999</v>
-      </c>
-      <c r="U32">
-        <v>0.11768000000000001</v>
-      </c>
-      <c r="W32" t="s">
-        <v>33</v>
-      </c>
-      <c r="X32" t="s">
-        <v>23</v>
+        <v>0.108725</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -9297,53 +8763,29 @@
       </c>
       <c r="H34" s="2">
         <f>AVERAGE(H3:H33)</f>
-        <v>376.9509545333334</v>
+        <v>345.69516433333325</v>
       </c>
       <c r="I34" s="2">
         <f>AVERAGE(I3:I33)</f>
-        <v>19.44832086666667</v>
+        <v>295.23338189999987</v>
       </c>
       <c r="J34" s="2">
         <f>AVERAGE(J3:J33)</f>
-        <v>17.4631358</v>
+        <v>15.691938533333333</v>
       </c>
       <c r="K34" s="2">
         <f>AVERAGE(K3:K33)</f>
-        <v>0.11438559999999995</v>
-      </c>
-      <c r="M34" s="2">
-        <f>AVERAGE(M3:M33)</f>
-        <v>3.5</v>
-      </c>
-      <c r="N34" s="2">
-        <f>AVERAGE(N3:N33)</f>
-        <v>1081.9067853333333</v>
-      </c>
-      <c r="O34" s="2">
-        <f>AVERAGE(O3:O33)</f>
-        <v>17.46105866666667</v>
-      </c>
-      <c r="P34" s="2">
-        <f>AVERAGE(P3:P33)</f>
-        <v>0.1158486</v>
-      </c>
+        <v>0.11382506666666664</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
-      <c r="R34" s="2">
-        <f>AVERAGE(R3:R33)</f>
-        <v>5</v>
-      </c>
-      <c r="S34" s="2">
-        <f>AVERAGE(S3:S33)</f>
-        <v>1260.9557157777776</v>
-      </c>
-      <c r="T34" s="2">
-        <f>AVERAGE(T3:T33)</f>
-        <v>17.444418222222218</v>
-      </c>
-      <c r="U34" s="2">
-        <f>AVERAGE(U3:U33)</f>
-        <v>0.11438559999999995</v>
-      </c>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E35">
@@ -9352,15 +8794,7 @@
       </c>
       <c r="K35">
         <f>MIN(K3:K33)</f>
-        <v>0.105062</v>
-      </c>
-      <c r="P35">
-        <f>MIN(P3:P33)</f>
-        <v>0.106735</v>
-      </c>
-      <c r="U35">
-        <f>MIN(U3:U33)</f>
-        <v>0.105062</v>
+        <v>0.10644099999999999</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
@@ -9370,23 +8804,14 @@
       </c>
       <c r="K36">
         <f>MAX(K3:K33)</f>
-        <v>0.13823099999999999</v>
-      </c>
-      <c r="P36">
-        <f>MAX(P3:P33)</f>
-        <v>0.14049500000000001</v>
-      </c>
-      <c r="U36">
-        <f>MAX(U3:U33)</f>
-        <v>0.13823099999999999</v>
+        <v>0.12560299999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="M1:P1"/>
-    <mergeCell ref="R1:U1"/>
     <mergeCell ref="W2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9398,56 +8823,63 @@
   <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="8" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="G1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -9456,25 +8888,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4171.8858840000003</v>
+        <v>755.09126500000002</v>
       </c>
       <c r="C3">
-        <v>66.714774000000006</v>
+        <v>766.08639300000004</v>
       </c>
       <c r="D3">
-        <v>6.1228999999999999E-2</v>
-      </c>
-      <c r="F3">
+        <v>51.626626999999999</v>
+      </c>
+      <c r="E3">
+        <v>6.0488E-2</v>
+      </c>
+      <c r="G3">
         <v>1</v>
-      </c>
-      <c r="G3" s="4">
-        <v>4846.4489629999998</v>
-      </c>
-      <c r="H3" s="4">
-        <v>67.796814999999995</v>
-      </c>
-      <c r="I3" s="4">
-        <v>5.3582999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -9482,25 +8908,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4162.5170150000004</v>
+        <v>776.15734999999995</v>
       </c>
       <c r="C4">
-        <v>66.454390000000004</v>
+        <v>807.25093200000003</v>
       </c>
       <c r="D4">
-        <v>6.0143000000000002E-2</v>
-      </c>
-      <c r="F4">
+        <v>51.523485999999998</v>
+      </c>
+      <c r="E4">
+        <v>5.9748999999999997E-2</v>
+      </c>
+      <c r="G4">
         <v>2</v>
-      </c>
-      <c r="G4" s="4">
-        <v>4845.258065</v>
-      </c>
-      <c r="H4" s="4">
-        <v>66.613759999999999</v>
-      </c>
-      <c r="I4" s="4">
-        <v>5.5504999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -9508,25 +8928,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4168.7933370000001</v>
+        <v>722.58836399999996</v>
       </c>
       <c r="C5">
-        <v>66.491598999999994</v>
+        <v>1068.247832</v>
       </c>
       <c r="D5">
-        <v>5.7050999999999998E-2</v>
-      </c>
-      <c r="F5">
+        <v>46.838999000000001</v>
+      </c>
+      <c r="E5">
+        <v>5.8538E-2</v>
+      </c>
+      <c r="G5">
         <v>3</v>
-      </c>
-      <c r="G5" s="4">
-        <v>4837.239243</v>
-      </c>
-      <c r="H5" s="4">
-        <v>66.679928000000004</v>
-      </c>
-      <c r="I5" s="4">
-        <v>5.5822999999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -9534,25 +8948,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4133.455191</v>
+        <v>736.52618900000004</v>
       </c>
       <c r="C6">
-        <v>66.503799000000001</v>
+        <v>1042.9896060000001</v>
       </c>
       <c r="D6">
-        <v>5.7340000000000002E-2</v>
-      </c>
-      <c r="F6">
+        <v>45.938645000000001</v>
+      </c>
+      <c r="E6">
+        <v>5.4983999999999998E-2</v>
+      </c>
+      <c r="G6">
         <v>4</v>
-      </c>
-      <c r="G6">
-        <v>4846.2456259999999</v>
-      </c>
-      <c r="H6">
-        <v>66.514399999999995</v>
-      </c>
-      <c r="I6">
-        <v>6.0012999999999997E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -9560,25 +8968,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4147.3038340000003</v>
+        <v>726.17744800000003</v>
       </c>
       <c r="C7">
-        <v>66.489852999999997</v>
+        <v>1067.936672</v>
       </c>
       <c r="D7">
-        <v>5.7853000000000002E-2</v>
-      </c>
-      <c r="F7">
+        <v>49.682926000000002</v>
+      </c>
+      <c r="E7">
+        <v>5.4510999999999997E-2</v>
+      </c>
+      <c r="G7">
         <v>5</v>
-      </c>
-      <c r="G7">
-        <v>4874.9134969999996</v>
-      </c>
-      <c r="H7">
-        <v>66.696745000000007</v>
-      </c>
-      <c r="I7">
-        <v>5.747E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -9586,25 +8988,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4134.845206</v>
+        <v>722.87735499999997</v>
       </c>
       <c r="C8">
-        <v>66.502369999999999</v>
+        <v>1067.049354</v>
       </c>
       <c r="D8">
-        <v>5.4103999999999999E-2</v>
-      </c>
-      <c r="F8">
+        <v>46.016705999999999</v>
+      </c>
+      <c r="E8">
+        <v>5.4980000000000001E-2</v>
+      </c>
+      <c r="G8">
         <v>6</v>
-      </c>
-      <c r="G8">
-        <v>4843.6908940000003</v>
-      </c>
-      <c r="H8">
-        <v>66.574262000000004</v>
-      </c>
-      <c r="I8">
-        <v>5.8736999999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -9612,13 +9008,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4134.7666479999998</v>
+        <v>747.97391100000004</v>
       </c>
       <c r="C9">
-        <v>66.507441999999998</v>
+        <v>1072.7946159999999</v>
       </c>
       <c r="D9">
-        <v>5.8777000000000003E-2</v>
+        <v>45.370848000000002</v>
+      </c>
+      <c r="E9">
+        <v>5.9651999999999997E-2</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -9626,13 +9028,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4132.008366</v>
+        <v>719.82905200000005</v>
       </c>
       <c r="C10">
-        <v>66.519696999999994</v>
+        <v>1075.9092700000001</v>
       </c>
       <c r="D10">
-        <v>5.5812E-2</v>
+        <v>51.041457999999999</v>
+      </c>
+      <c r="E10">
+        <v>5.5428999999999999E-2</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -9640,101 +9048,422 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4125.1992060000002</v>
+        <v>830.95185100000003</v>
       </c>
       <c r="C11">
-        <v>66.469773000000004</v>
+        <v>1053.6839620000001</v>
       </c>
       <c r="D11">
-        <v>6.7823999999999995E-2</v>
+        <v>51.701124</v>
+      </c>
+      <c r="E11">
+        <v>5.4605000000000001E-2</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>759.18397100000004</v>
+      </c>
+      <c r="C12">
+        <v>1050.1320900000001</v>
+      </c>
+      <c r="D12">
+        <v>46.952857000000002</v>
+      </c>
+      <c r="E12">
+        <v>5.9159000000000003E-2</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>771.20912599999997</v>
+      </c>
+      <c r="C13">
+        <v>1051.6130680000001</v>
+      </c>
+      <c r="D13">
+        <v>51.707197999999998</v>
+      </c>
+      <c r="E13">
+        <v>5.6585000000000003E-2</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>756.28851099999997</v>
+      </c>
+      <c r="C14">
+        <v>1059.6360139999999</v>
+      </c>
+      <c r="D14">
+        <v>47.991743999999997</v>
+      </c>
+      <c r="E14">
+        <v>6.0817999999999997E-2</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>742.25689199999999</v>
+      </c>
+      <c r="C15">
+        <v>1057.608731</v>
+      </c>
+      <c r="D15">
+        <v>45.508358999999999</v>
+      </c>
+      <c r="E15">
+        <v>6.3229999999999995E-2</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>728.38853600000004</v>
+      </c>
+      <c r="C16">
+        <v>1068.0745380000001</v>
+      </c>
+      <c r="D16">
+        <v>46.211883</v>
+      </c>
+      <c r="E16">
+        <v>6.3474000000000003E-2</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>765.682817</v>
+      </c>
+      <c r="C17">
+        <v>1061.8034150000001</v>
+      </c>
+      <c r="D17">
+        <v>46.525570999999999</v>
+      </c>
+      <c r="E17">
+        <v>6.1489000000000002E-2</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>726.882791</v>
+      </c>
+      <c r="C18">
+        <v>1060.4726000000001</v>
+      </c>
+      <c r="D18">
+        <v>45.234279999999998</v>
+      </c>
+      <c r="E18">
+        <v>5.4979E-2</v>
+      </c>
+      <c r="G18">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>716.43275000000006</v>
+      </c>
+      <c r="C19">
+        <v>1072.643284</v>
+      </c>
       <c r="D19">
-        <v>6.2438E-2</v>
+        <v>45.810747999999997</v>
+      </c>
+      <c r="E19">
+        <v>6.2714000000000006E-2</v>
+      </c>
+      <c r="G19">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>717.852755</v>
+      </c>
+      <c r="C20">
+        <v>1077.323077</v>
+      </c>
       <c r="D20">
-        <v>5.5362000000000001E-2</v>
+        <v>45.607714000000001</v>
+      </c>
+      <c r="E20">
+        <v>5.8618999999999997E-2</v>
+      </c>
+      <c r="G20">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>739.69909199999995</v>
+      </c>
+      <c r="C21">
+        <v>1076.503659</v>
+      </c>
       <c r="D21">
-        <v>5.2118999999999999E-2</v>
+        <v>46.229761000000003</v>
+      </c>
+      <c r="E21">
+        <v>5.5458E-2</v>
+      </c>
+      <c r="G21">
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>773.57063400000004</v>
+      </c>
+      <c r="C22">
+        <v>1082.5093409999999</v>
+      </c>
       <c r="D22">
-        <v>5.4601999999999998E-2</v>
+        <v>45.492570000000001</v>
+      </c>
+      <c r="E22">
+        <v>5.9746E-2</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>789.42848100000003</v>
+      </c>
+      <c r="C23">
+        <v>1049.7467630000001</v>
+      </c>
       <c r="D23">
-        <v>5.5608999999999999E-2</v>
+        <v>46.622695999999998</v>
+      </c>
+      <c r="E23">
+        <v>6.0033999999999997E-2</v>
+      </c>
+      <c r="G23">
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>885.72530700000004</v>
+      </c>
+      <c r="C24">
+        <v>1093.8394780000001</v>
+      </c>
       <c r="D24">
-        <v>5.4531000000000003E-2</v>
+        <v>46.036698999999999</v>
+      </c>
+      <c r="E24">
+        <v>6.1312999999999999E-2</v>
+      </c>
+      <c r="G24">
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>727.56245799999999</v>
+      </c>
+      <c r="C25">
+        <v>1059.96982</v>
+      </c>
       <c r="D25">
-        <v>5.6570000000000002E-2</v>
+        <v>45.890687999999997</v>
+      </c>
+      <c r="E25">
+        <v>5.5527E-2</v>
+      </c>
+      <c r="G25">
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>726.53972499999998</v>
+      </c>
+      <c r="C26">
+        <v>798.10464100000002</v>
+      </c>
       <c r="D26">
-        <v>5.8286999999999999E-2</v>
+        <v>52.358615999999998</v>
+      </c>
+      <c r="E26">
+        <v>6.0330000000000002E-2</v>
+      </c>
+      <c r="G26">
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>738.57726700000001</v>
+      </c>
+      <c r="C27">
+        <v>809.68698500000005</v>
+      </c>
       <c r="D27">
-        <v>5.5088999999999999E-2</v>
-      </c>
-      <c r="I27">
-        <v>5.6499000000000001E-2</v>
+        <v>51.523046000000001</v>
+      </c>
+      <c r="E27">
+        <v>5.509E-2</v>
+      </c>
+      <c r="G27">
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>737.81745699999999</v>
+      </c>
+      <c r="C28">
+        <v>865.49373800000001</v>
+      </c>
       <c r="D28">
-        <v>5.7468999999999999E-2</v>
-      </c>
-      <c r="I28" s="4">
-        <v>5.7286999999999998E-2</v>
+        <v>52.171227000000002</v>
+      </c>
+      <c r="E28">
+        <v>5.4955999999999998E-2</v>
+      </c>
+      <c r="G28">
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>699.32536900000002</v>
+      </c>
+      <c r="C29">
+        <v>799.55793000000006</v>
+      </c>
       <c r="D29">
-        <v>5.3879999999999997E-2</v>
-      </c>
-      <c r="I29" s="4">
-        <v>5.7328999999999998E-2</v>
+        <v>51.291336000000001</v>
+      </c>
+      <c r="E29">
+        <v>5.407E-2</v>
+      </c>
+      <c r="G29">
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>703.17836699999998</v>
+      </c>
+      <c r="C30">
+        <v>797.188174</v>
+      </c>
       <c r="D30">
-        <v>6.0040999999999997E-2</v>
-      </c>
-      <c r="I30" s="4">
-        <v>6.4656000000000005E-2</v>
+        <v>51.596871999999998</v>
+      </c>
+      <c r="E30">
+        <v>6.1138999999999999E-2</v>
+      </c>
+      <c r="G30">
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>735.31841699999995</v>
+      </c>
+      <c r="C31" s="2">
+        <v>853.07689500000004</v>
+      </c>
       <c r="D31" s="2">
-        <v>6.0238E-2</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+        <v>53.091524</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5.3844000000000003E-2</v>
+      </c>
+      <c r="G31" s="2">
+        <v>29</v>
+      </c>
       <c r="H31" s="2"/>
-      <c r="I31" s="4">
-        <v>6.3133999999999996E-2</v>
-      </c>
+      <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="M31" s="2"/>
@@ -9748,72 +9477,91 @@
       <c r="U31" s="2"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>710.03146800000002</v>
+      </c>
+      <c r="C32">
+        <v>823.20864800000004</v>
+      </c>
       <c r="D32">
-        <v>5.9351000000000001E-2</v>
-      </c>
-      <c r="I32" s="4">
-        <v>5.4730000000000001E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>53.994041000000003</v>
+      </c>
+      <c r="E32">
+        <v>5.7523999999999999E-2</v>
+      </c>
+      <c r="G32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <f>AVERAGE(A3:A33)</f>
-        <v>5</v>
+        <v>15.5</v>
       </c>
       <c r="B34" s="2">
         <f>AVERAGE(B3:B33)</f>
-        <v>4145.6416318888887</v>
+        <v>746.30416586666672</v>
       </c>
       <c r="C34" s="2">
         <f>AVERAGE(C3:C33)</f>
-        <v>66.517077444444439</v>
+        <v>989.67138420000026</v>
       </c>
       <c r="D34" s="2">
         <f>AVERAGE(D3:D33)</f>
-        <v>5.7639956521739123E-2</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2">
-        <f>AVERAGE(F3:F33)</f>
-        <v>3.5</v>
+        <v>48.586341633333333</v>
+      </c>
+      <c r="E34" s="2">
+        <f>AVERAGE(E3:E33)</f>
+        <v>5.8101133333333339E-2</v>
       </c>
       <c r="G34" s="2">
         <f>AVERAGE(G3:G33)</f>
-        <v>4848.9660479999993</v>
-      </c>
-      <c r="H34" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="H34" s="2" t="e">
         <f>AVERAGE(H3:H33)</f>
-        <v>66.812651666666682</v>
-      </c>
-      <c r="I34" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34" s="2" t="e">
         <f>AVERAGE(I3:I33)</f>
-        <v>5.7897166666666666E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D35">
-        <f>MIN(D3:D33)</f>
-        <v>5.2118999999999999E-2</v>
-      </c>
-      <c r="I35">
-        <f>MIN(I3:I33)</f>
-        <v>5.3582999999999999E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D36">
-        <f>MAX(D3:D33)</f>
-        <v>6.7823999999999995E-2</v>
-      </c>
-      <c r="I36">
-        <f>MAX(I3:I33)</f>
-        <v>6.4656000000000005E-2</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J34" s="2" t="e">
+        <f>AVERAGE(J3:J33)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K34" s="2" t="e">
+        <f>AVERAGE(K3:K33)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <f>MIN(E3:E33)</f>
+        <v>5.3844000000000003E-2</v>
+      </c>
+      <c r="K35">
+        <f>MIN(K3:K33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <f>MAX(E3:E33)</f>
+        <v>6.3474000000000003E-2</v>
+      </c>
+      <c r="K36">
+        <f>MAX(K3:K33)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9823,8 +9571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T47" sqref="T47"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9836,16 +9584,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -9853,12 +9601,12 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <f>'4'!P34</f>
-        <v>0</v>
+        <f>'4'!E34</f>
+        <v>7.6708909000000007</v>
       </c>
       <c r="C2">
-        <f>'4'!U34</f>
-        <v>0</v>
+        <f>'4'!K34</f>
+        <v>7.697070133333332</v>
       </c>
       <c r="D2" s="4">
         <v>5.5611920000000001</v>
@@ -9869,12 +9617,12 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <f>'16'!P34</f>
-        <v>0</v>
+        <f>'16'!E34</f>
+        <v>2.8472499666666664</v>
       </c>
       <c r="C3">
-        <f>'16'!U34</f>
-        <v>0</v>
+        <f>'16'!K34</f>
+        <v>2.8022820999999998</v>
       </c>
       <c r="D3" s="4">
         <v>2.7805960000000001</v>
@@ -9885,12 +9633,12 @@
         <v>64</v>
       </c>
       <c r="B4">
-        <f>'64'!P34</f>
-        <v>0</v>
+        <f>'64'!E34</f>
+        <v>1.1091501999999998</v>
       </c>
       <c r="C4">
-        <f>'64'!U34</f>
-        <v>0</v>
+        <f>'64'!K34</f>
+        <v>1.1261730999999997</v>
       </c>
       <c r="D4" s="4">
         <v>1.390298</v>
@@ -9901,12 +9649,12 @@
         <v>256</v>
       </c>
       <c r="B5">
-        <f>'256'!P34</f>
-        <v>0</v>
+        <f>'256'!E34</f>
+        <v>0.50461579999999995</v>
       </c>
       <c r="C5">
-        <f>'256'!U34</f>
-        <v>0</v>
+        <f>'256'!K34</f>
+        <v>0.49924750000000023</v>
       </c>
       <c r="D5" s="4">
         <v>0.69514900000000002</v>
@@ -9917,12 +9665,12 @@
         <v>1024</v>
       </c>
       <c r="B6">
-        <f>'1024'!P34</f>
-        <v>0</v>
+        <f>'1024'!E34</f>
+        <v>0.23064756666666664</v>
       </c>
       <c r="C6">
-        <f>'1024'!U34</f>
-        <v>0</v>
+        <f>'1024'!K34</f>
+        <v>0.23642030000000006</v>
       </c>
       <c r="D6" s="4">
         <v>0.34757500000000002</v>
@@ -9933,12 +9681,12 @@
         <v>4096</v>
       </c>
       <c r="B7">
-        <f>'4096'!P34</f>
-        <v>0.1158486</v>
+        <f>'4096'!E34</f>
+        <v>0.11465913333333333</v>
       </c>
       <c r="C7">
-        <f>'4096'!U34</f>
-        <v>0.11438559999999995</v>
+        <f>'4096'!K34</f>
+        <v>0.11382506666666664</v>
       </c>
       <c r="D7" s="4">
         <v>0.173787</v>
@@ -9949,12 +9697,12 @@
         <v>15768</v>
       </c>
       <c r="B8">
-        <f>'15768'!D34</f>
-        <v>5.7639956521739123E-2</v>
-      </c>
-      <c r="C8">
-        <f>'15768'!I34</f>
-        <v>5.7897166666666666E-2</v>
+        <f>'15768'!E34</f>
+        <v>5.8101133333333339E-2</v>
+      </c>
+      <c r="C8" t="e">
+        <f>'15768'!K34</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="D8" s="4">
         <v>8.8575000000000001E-2</v>
@@ -9962,16 +9710,16 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -9979,12 +9727,12 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <f>'4'!P36</f>
-        <v>0</v>
+        <f>'4'!E36</f>
+        <v>10.23197</v>
       </c>
       <c r="C29" s="2">
-        <f>'4'!U36</f>
-        <v>0</v>
+        <f>'4'!K36</f>
+        <v>9.8003230000000006</v>
       </c>
       <c r="D29" s="2">
         <v>5.5611920000000001</v>
@@ -9995,12 +9743,12 @@
         <v>16</v>
       </c>
       <c r="B30" s="2">
-        <f>'16'!P36</f>
-        <v>0</v>
+        <f>'16'!E36</f>
+        <v>3.3739530000000002</v>
       </c>
       <c r="C30" s="2">
-        <f>'16'!U36</f>
-        <v>0</v>
+        <f>'16'!K36</f>
+        <v>3.58399</v>
       </c>
       <c r="D30" s="2">
         <v>2.7805960000000001</v>
@@ -10011,12 +9759,12 @@
         <v>64</v>
       </c>
       <c r="B31" s="2">
-        <f>'64'!P36</f>
-        <v>0</v>
+        <f>'64'!E36</f>
+        <v>1.2777350000000001</v>
       </c>
       <c r="C31" s="2">
-        <f>'64'!U36</f>
-        <v>0</v>
+        <f>'64'!K36</f>
+        <v>1.3175939999999999</v>
       </c>
       <c r="D31" s="2">
         <v>1.390298</v>
@@ -10027,12 +9775,12 @@
         <v>256</v>
       </c>
       <c r="B32" s="2">
-        <f>'256'!P36</f>
-        <v>0</v>
+        <f>'256'!E36</f>
+        <v>0.63019800000000004</v>
       </c>
       <c r="C32" s="2">
-        <f>'256'!U36</f>
-        <v>0</v>
+        <f>'256'!K36</f>
+        <v>0.56859400000000004</v>
       </c>
       <c r="D32" s="2">
         <v>0.69514900000000002</v>
@@ -10043,12 +9791,12 @@
         <v>1024</v>
       </c>
       <c r="B33" s="2">
-        <f>'1024'!P36</f>
-        <v>0</v>
+        <f>'1024'!E36</f>
+        <v>0.27759400000000001</v>
       </c>
       <c r="C33" s="2">
-        <f>'1024'!U36</f>
-        <v>0</v>
+        <f>'1024'!K36</f>
+        <v>0.26380999999999999</v>
       </c>
       <c r="D33" s="2">
         <v>0.34757500000000002</v>
@@ -10059,12 +9807,12 @@
         <v>4096</v>
       </c>
       <c r="B34" s="2">
-        <f>'4096'!P36</f>
-        <v>0.14049500000000001</v>
+        <f>'4096'!E36</f>
+        <v>0.12965599999999999</v>
       </c>
       <c r="C34" s="2">
-        <f>'4096'!U36</f>
-        <v>0.13823099999999999</v>
+        <f>'4096'!K36</f>
+        <v>0.12560299999999999</v>
       </c>
       <c r="D34" s="2">
         <v>0.173787</v>
@@ -10075,12 +9823,12 @@
         <v>15768</v>
       </c>
       <c r="B35" s="2">
-        <f>'15768'!D36</f>
-        <v>6.7823999999999995E-2</v>
+        <f>'15768'!E36</f>
+        <v>6.3474000000000003E-2</v>
       </c>
       <c r="C35" s="2">
-        <f>'15768'!I36</f>
-        <v>6.4656000000000005E-2</v>
+        <f>'15768'!K36</f>
+        <v>0</v>
       </c>
       <c r="D35" s="2">
         <v>8.8575000000000001E-2</v>
@@ -10096,8 +9844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10110,19 +9858,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -10130,141 +9872,105 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <f>'4'!B34 + '4'!C34</f>
-        <v>0.74541733333333327</v>
+        <f>'4'!B34</f>
+        <v>0.1805052</v>
       </c>
       <c r="C2" s="2">
-        <f>'4'!H34 + '4'!I34</f>
-        <v>0.9508112666666666</v>
-      </c>
-      <c r="D2" s="2">
-        <f>'4'!N34</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <f>'4'!S34</f>
-        <v>0</v>
-      </c>
+        <f>'4'!H34</f>
+        <v>0.36818196666666664</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>16</v>
       </c>
       <c r="B3" s="2">
-        <f>'16'!B34 + '16'!C34</f>
-        <v>1.4878425333333332</v>
+        <f>'16'!B34</f>
+        <v>0.75396563333333322</v>
       </c>
       <c r="C3" s="2">
-        <f>'16'!H34 + '16'!I34</f>
-        <v>2.0989739333333333</v>
-      </c>
-      <c r="D3" s="2">
-        <f>'16'!N34</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <f>'16'!S34</f>
-        <v>0</v>
-      </c>
+        <f>'16'!H34</f>
+        <v>1.3565160666666665</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>64</v>
       </c>
       <c r="B4" s="2">
-        <f>'64'!B34 + '64'!C34</f>
-        <v>4.9104290666666666</v>
+        <f>'64'!B34</f>
+        <v>3.3640925333333334</v>
       </c>
       <c r="C4" s="2">
-        <f>'64'!H34 + '64'!I34</f>
-        <v>6.9993025333333323</v>
-      </c>
-      <c r="D4" s="2">
-        <f>'64'!N34</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <f>'64'!S34</f>
-        <v>0</v>
-      </c>
+        <f>'64'!H34</f>
+        <v>5.5160740666666657</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>256</v>
       </c>
       <c r="B5" s="2">
-        <f>'256'!B34 + '256'!C34</f>
-        <v>44.44728666666667</v>
+        <f>'256'!B34</f>
+        <v>12.931406266666663</v>
       </c>
       <c r="C5" s="2">
-        <f>'256'!H34 + '256'!I34</f>
-        <v>53.106131500000004</v>
-      </c>
-      <c r="D5" s="2">
-        <f>'256'!N34</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <f>'256'!S34</f>
-        <v>0</v>
-      </c>
+        <f>'256'!H34</f>
+        <v>21.858986233333333</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1024</v>
       </c>
       <c r="B6" s="2">
-        <f>'1024'!B34 + '1024'!C34</f>
-        <v>133.80866813333336</v>
+        <f>'1024'!B34</f>
+        <v>50.183372666666664</v>
       </c>
       <c r="C6" s="2">
-        <f>'1024'!H34 + '1024'!I34</f>
-        <v>173.30700596666668</v>
-      </c>
-      <c r="D6" s="2">
-        <f>'1024'!N34</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <f>'1024'!S34</f>
-        <v>0</v>
-      </c>
+        <f>'1024'!H34</f>
+        <v>94.006543599999986</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4096</v>
       </c>
       <c r="B7" s="2">
-        <f>'4096'!B34 + '4096'!C34</f>
-        <v>493.92991213333335</v>
+        <f>'4096'!B34</f>
+        <v>197.73839633333336</v>
       </c>
       <c r="C7" s="2">
-        <f>'4096'!H34 + '4096'!I34</f>
-        <v>396.39927540000008</v>
-      </c>
-      <c r="D7" s="2">
-        <f>'4096'!N34</f>
-        <v>1081.9067853333333</v>
-      </c>
-      <c r="E7" s="2">
-        <f>'4096'!S34</f>
-        <v>1260.9557157777776</v>
-      </c>
+        <f>'4096'!H34</f>
+        <v>345.69516433333325</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>15768</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
+      <c r="B8" s="2">
         <f>'15768'!B34</f>
-        <v>4145.6416318888887</v>
-      </c>
-      <c r="E8" s="2">
-        <f>'15768'!G34</f>
-        <v>4848.9660479999993</v>
-      </c>
+        <v>746.30416586666672</v>
+      </c>
+      <c r="C8" s="2" t="e">
+        <f>'15768'!H34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/report/report com numpy.xlsx
+++ b/report/report com numpy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
+    <workbookView xWindow="4890" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="4" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="GráficoDistorsão" sheetId="8" r:id="rId8"/>
     <sheet name="TempoGeração" sheetId="9" r:id="rId9"/>
     <sheet name="TempoProjeção" sheetId="10" r:id="rId10"/>
+    <sheet name="TempoDistância" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="11">
   <si>
     <t>case</t>
   </si>
@@ -54,6 +55,9 @@
   <si>
     <t>Random Projection</t>
   </si>
+  <si>
+    <t>Tempo no espaço original (d = 102660)</t>
+  </si>
 </sst>
 </file>
 
@@ -63,13 +67,19 @@
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF263238"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -92,7 +102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -104,6 +114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -416,11 +427,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="357505912"/>
-        <c:axId val="357505520"/>
+        <c:axId val="182802240"/>
+        <c:axId val="181242496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="357505912"/>
+        <c:axId val="182802240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -449,7 +460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="357505520"/>
+        <c:crossAx val="181242496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -457,7 +468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="357505520"/>
+        <c:axId val="181242496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -488,7 +499,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="357505912"/>
+        <c:crossAx val="182802240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -811,11 +822,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="357504736"/>
-        <c:axId val="357504344"/>
+        <c:axId val="232579528"/>
+        <c:axId val="232579912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="357504736"/>
+        <c:axId val="232579528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -844,7 +855,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="357504344"/>
+        <c:crossAx val="232579912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -852,7 +863,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="357504344"/>
+        <c:axId val="232579912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -888,7 +899,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="357504736"/>
+        <c:crossAx val="232579528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -948,7 +959,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> Geração da matriz dos dados para cada 'n'</a:t>
+              <a:t> geração da matriz de projeção cada 'n'</a:t>
             </a:r>
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
@@ -1088,7 +1099,7 @@
                   <c:v>345.69516433333325</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>9.9999999999999995E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1096,7 +1107,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1106,11 +1116,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="357503168"/>
-        <c:axId val="357510224"/>
+        <c:axId val="232606776"/>
+        <c:axId val="232611256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="357503168"/>
+        <c:axId val="232606776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1144,7 +1154,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="357510224"/>
+        <c:crossAx val="232611256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1152,7 +1162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="357510224"/>
+        <c:axId val="232611256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1182,7 +1192,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="357503168"/>
+        <c:crossAx val="232606776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1214,6 +1224,245 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400"/>
+              <a:t>Escala Logarítmica (log10)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20847084594920348"/>
+          <c:y val="1.9323903956449888E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.3206174403024796E-2"/>
+          <c:y val="0.13933457958043013"/>
+          <c:w val="0.86457909442783065"/>
+          <c:h val="0.79884245147952726"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TempoGeração!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Achlioptas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>TempoGeração!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TempoGeração!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.1805052</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75396563333333322</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3640925333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.931406266666663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.183372666666664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>197.73839633333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>746.30416586666672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TempoGeração!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Projeção Aleatória</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>TempoGeração!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.36818196666666664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3565160666666665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5160740666666657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.858986233333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.006543599999986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>345.69516433333325</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9999999999999995E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="232646296"/>
+        <c:axId val="232639096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="232646296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="232639096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="232639096"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="232646296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1412,7 +1661,7 @@
                   <c:v>295.23338189999987</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>9.9999999999999995E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1429,11 +1678,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="429685688"/>
-        <c:axId val="429686080"/>
+        <c:axId val="182935592"/>
+        <c:axId val="182935984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="429685688"/>
+        <c:axId val="182935592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1467,7 +1716,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429686080"/>
+        <c:crossAx val="182935984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1475,7 +1724,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="429686080"/>
+        <c:axId val="182935984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1505,7 +1754,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429685688"/>
+        <c:crossAx val="182935592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1524,6 +1773,964 @@
       </c:layout>
       <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400"/>
+              <a:t>Escala Logarítmica (log10)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25144331838902911"/>
+          <c:y val="1.1347512660964914E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9313419155938841E-2"/>
+          <c:y val="0.13933457958043013"/>
+          <c:w val="0.8631694439357871"/>
+          <c:h val="0.76405976650178997"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TempoProjeção!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Achlioptas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>TempoProjeção!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TempoProjeção!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.56491213333333323</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73387689999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.546336533333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.515880400000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.625295466666685</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>296.19151579999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>989.67138420000026</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TempoProjeção!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Projeção Aleatória</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>TempoProjeção!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TempoProjeção!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.58262930000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74245786666666669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4832284666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.247145266666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.300462366666679</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>295.23338189999987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9999999999999995E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="232740096"/>
+        <c:axId val="232740488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="232740096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="232740488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="232740488"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="232740096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Tempo para o cálculo da matriz de distância</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9313419155938841E-2"/>
+          <c:y val="0.13933457958043013"/>
+          <c:w val="0.91676886543028269"/>
+          <c:h val="0.76405976650178997"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TempoDistância!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Achlioptas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>TempoDistância!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TempoDistância!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.0914199999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3747966666666659E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13656136666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5957006333333341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3114101999999983</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.09137363333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.586341633333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TempoDistância!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Projeção Aleatória</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>TempoDistância!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TempoDistância!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.3287366666666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5470933333333324E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.130805</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6552707999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6067013333333318</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.691938533333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9999999999999995E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TempoDistância!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tempo no espaço original (d = 102660)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>TempoDistância!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>358</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="182937944"/>
+        <c:axId val="182937552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="182937944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1200"/>
+                  <a:t>Dimensão</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="182937552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="182937552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1200"/>
+                  <a:t>Tempo (segundos)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="182937944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13337650276232954"/>
+          <c:y val="8.9293600526394956E-2"/>
+          <c:w val="0.77725617164987248"/>
+          <c:h val="5.2414229735426282E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Escala Logarítmica (log10)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5070976267826664E-2"/>
+          <c:y val="0.19388012699588308"/>
+          <c:w val="0.94101132463337189"/>
+          <c:h val="0.74139835771970519"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TempoDistância!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Achlioptas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>TempoDistância!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TempoDistância!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.0914199999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3747966666666659E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13656136666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5957006333333341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3114101999999983</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.09137363333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.586341633333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TempoDistância!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Projeção Aleatória</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>TempoDistância!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TempoDistância!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.3287366666666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5470933333333324E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.130805</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6552707999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6067013333333318</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.691938533333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9999999999999995E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Tempo no espaço orignal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>TempoDistância!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>358</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="182936768"/>
+        <c:axId val="232741272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="182936768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="232741272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="232741272"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="182936768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1635,6 +2842,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1667,6 +2906,107 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1965,7 +3305,7 @@
   <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="K34" sqref="K34:K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1982,20 +3322,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -3092,8 +4432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3199,14 +4539,160 @@
         <f>'15768'!C34</f>
         <v>989.67138420000026</v>
       </c>
-      <c r="C8" s="2" t="e">
-        <f>'15768'!H34</f>
-        <v>#DIV/0!</v>
+      <c r="C8" s="2">
+        <v>9.9999999999999995E-8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <f>'4'!D34</f>
+        <v>2.0914199999999997E-2</v>
+      </c>
+      <c r="C2" s="2">
+        <f>'4'!J34</f>
+        <v>2.3287366666666667E-2</v>
+      </c>
+      <c r="D2" s="7">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2">
+        <f>'16'!D34</f>
+        <v>4.3747966666666659E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <f>'16'!J34</f>
+        <v>4.5470933333333324E-2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>64</v>
+      </c>
+      <c r="B4" s="2">
+        <f>'64'!D34</f>
+        <v>0.13656136666666666</v>
+      </c>
+      <c r="C4" s="2">
+        <f>'64'!J34</f>
+        <v>0.130805</v>
+      </c>
+      <c r="D4" s="7">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>256</v>
+      </c>
+      <c r="B5" s="2">
+        <f>'256'!D34</f>
+        <v>3.5957006333333341</v>
+      </c>
+      <c r="C5" s="2">
+        <f>'256'!J34</f>
+        <v>3.6552707999999994</v>
+      </c>
+      <c r="D5" s="7">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1024</v>
+      </c>
+      <c r="B6" s="2">
+        <f>'1024'!D34</f>
+        <v>5.3114101999999983</v>
+      </c>
+      <c r="C6" s="2">
+        <f>'1024'!J34</f>
+        <v>5.6067013333333318</v>
+      </c>
+      <c r="D6" s="7">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4096</v>
+      </c>
+      <c r="B7" s="2">
+        <f>'4096'!D34</f>
+        <v>14.09137363333333</v>
+      </c>
+      <c r="C7" s="2">
+        <f>'4096'!J34</f>
+        <v>15.691938533333333</v>
+      </c>
+      <c r="D7" s="7">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>15768</v>
+      </c>
+      <c r="B8" s="2">
+        <f>'15768'!D34</f>
+        <v>48.586341633333333</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D8" s="7">
+        <v>358</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3215,26 +4701,26 @@
   <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="K34" sqref="K34:K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
       <c r="L1" s="6"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -4331,7 +5817,7 @@
   <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="K34" sqref="K34:K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4340,20 +5826,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -5449,7 +6935,7 @@
   <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="K34" sqref="K34:K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5459,20 +6945,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -6569,7 +8055,7 @@
   <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="K34" sqref="K34:K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6581,20 +8067,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -7690,7 +9176,7 @@
   <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K37"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7708,24 +9194,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
@@ -7763,8 +9249,8 @@
       <c r="K2" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -8823,7 +10309,7 @@
   <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="E34" sqref="E34:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8836,20 +10322,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -9571,8 +11057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9845,7 +11331,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9965,9 +11451,8 @@
         <f>'15768'!B34</f>
         <v>746.30416586666672</v>
       </c>
-      <c r="C8" s="2" t="e">
-        <f>'15768'!H34</f>
-        <v>#DIV/0!</v>
+      <c r="C8" s="2">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>

--- a/report/report com numpy.xlsx
+++ b/report/report com numpy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="5820" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="4" sheetId="1" r:id="rId1"/>
@@ -336,7 +336,7 @@
                   <c:v>0.11382506666666664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5.8294466666666683E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -427,11 +427,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="182802240"/>
-        <c:axId val="181242496"/>
+        <c:axId val="372914288"/>
+        <c:axId val="374064088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182802240"/>
+        <c:axId val="372914288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -460,7 +460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181242496"/>
+        <c:crossAx val="374064088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -468,7 +468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181242496"/>
+        <c:axId val="374064088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -499,7 +499,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182802240"/>
+        <c:crossAx val="372914288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -731,7 +731,7 @@
                   <c:v>0.12560299999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6.5808000000000005E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -822,11 +822,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="232579528"/>
-        <c:axId val="232579912"/>
+        <c:axId val="373974176"/>
+        <c:axId val="373980704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="232579528"/>
+        <c:axId val="373974176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,7 +855,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232579912"/>
+        <c:crossAx val="373980704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -863,7 +863,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="232579912"/>
+        <c:axId val="373980704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -899,7 +899,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232579528"/>
+        <c:crossAx val="373974176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1099,7 +1099,7 @@
                   <c:v>345.69516433333325</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.9999999999999995E-8</c:v>
+                  <c:v>1342.4739265666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1116,11 +1116,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="232606776"/>
-        <c:axId val="232611256"/>
+        <c:axId val="374060104"/>
+        <c:axId val="374062536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="232606776"/>
+        <c:axId val="374060104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1154,7 +1154,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232611256"/>
+        <c:crossAx val="374062536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1162,7 +1162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="232611256"/>
+        <c:axId val="374062536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1192,7 +1192,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232606776"/>
+        <c:crossAx val="374060104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1394,7 +1394,7 @@
                   <c:v>345.69516433333325</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.9999999999999995E-8</c:v>
+                  <c:v>1342.4739265666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1411,11 +1411,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="232646296"/>
-        <c:axId val="232639096"/>
+        <c:axId val="374034472"/>
+        <c:axId val="374034856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="232646296"/>
+        <c:axId val="374034472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1425,7 +1425,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232639096"/>
+        <c:crossAx val="374034856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1433,7 +1433,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="232639096"/>
+        <c:axId val="374034856"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1445,7 +1445,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232646296"/>
+        <c:crossAx val="374034472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1661,7 +1661,7 @@
                   <c:v>295.23338189999987</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.9999999999999995E-8</c:v>
+                  <c:v>991.90471753333361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1678,11 +1678,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="182935592"/>
-        <c:axId val="182935984"/>
+        <c:axId val="374025800"/>
+        <c:axId val="374196080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="182935592"/>
+        <c:axId val="374025800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1716,7 +1716,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182935984"/>
+        <c:crossAx val="374196080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1724,7 +1724,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182935984"/>
+        <c:axId val="374196080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1754,7 +1754,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182935592"/>
+        <c:crossAx val="374025800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1986,7 +1986,7 @@
                   <c:v>295.23338189999987</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.9999999999999995E-8</c:v>
+                  <c:v>991.90471753333361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2003,11 +2003,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="232740096"/>
-        <c:axId val="232740488"/>
+        <c:axId val="374187504"/>
+        <c:axId val="374339416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="232740096"/>
+        <c:axId val="374187504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2017,7 +2017,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232740488"/>
+        <c:crossAx val="374339416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2025,7 +2025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="232740488"/>
+        <c:axId val="374339416"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2037,7 +2037,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232740096"/>
+        <c:crossAx val="374187504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2248,7 +2248,7 @@
                   <c:v>15.691938533333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.9999999999999995E-8</c:v>
+                  <c:v>54.497630766666674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2326,11 +2326,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="182937944"/>
-        <c:axId val="182937552"/>
+        <c:axId val="374340200"/>
+        <c:axId val="374340592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="182937944"/>
+        <c:axId val="374340200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2359,7 +2359,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182937552"/>
+        <c:crossAx val="374340592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2367,7 +2367,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182937552"/>
+        <c:axId val="374340592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2397,7 +2397,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182937944"/>
+        <c:crossAx val="374340200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2622,7 +2622,7 @@
                   <c:v>15.691938533333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.9999999999999995E-8</c:v>
+                  <c:v>54.497630766666674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2692,11 +2692,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="182936768"/>
-        <c:axId val="232741272"/>
+        <c:axId val="374341376"/>
+        <c:axId val="374341768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="182936768"/>
+        <c:axId val="374341376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2706,7 +2706,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232741272"/>
+        <c:crossAx val="374341768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2714,7 +2714,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="232741272"/>
+        <c:axId val="374341768"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2726,7 +2726,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182936768"/>
+        <c:crossAx val="374341376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4433,7 +4433,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4540,7 +4540,8 @@
         <v>989.67138420000026</v>
       </c>
       <c r="C8" s="2">
-        <v>9.9999999999999995E-8</v>
+        <f>'15768'!I34</f>
+        <v>991.90471753333361</v>
       </c>
     </row>
   </sheetData>
@@ -4554,7 +4555,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4683,7 +4684,8 @@
         <v>48.586341633333333</v>
       </c>
       <c r="C8" s="2">
-        <v>9.9999999999999995E-8</v>
+        <f>'15768'!J34</f>
+        <v>54.497630766666674</v>
       </c>
       <c r="D8" s="7">
         <v>358</v>
@@ -9176,16 +9178,16 @@
   <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -10308,20 +10310,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34:E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -10337,7 +10341,7 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -10369,7 +10373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10388,8 +10392,23 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>1366.854317</v>
+      </c>
+      <c r="I3">
+        <v>766.08639300000004</v>
+      </c>
+      <c r="J3">
+        <v>57.565393999999998</v>
+      </c>
+      <c r="K3">
+        <v>5.9250999999999998E-2</v>
+      </c>
+      <c r="N3">
+        <v>836.93939499999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10408,8 +10427,23 @@
       <c r="G4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>1485.40807</v>
+      </c>
+      <c r="I4">
+        <v>850.25093200000003</v>
+      </c>
+      <c r="J4">
+        <v>55.484250000000003</v>
+      </c>
+      <c r="K4">
+        <v>5.7342999999999998E-2</v>
+      </c>
+      <c r="N4">
+        <v>798.94628999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10428,8 +10462,23 @@
       <c r="G5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>1338.690288</v>
+      </c>
+      <c r="I5">
+        <v>1068.247832</v>
+      </c>
+      <c r="J5">
+        <v>52.972476999999998</v>
+      </c>
+      <c r="K5">
+        <v>5.9976000000000002E-2</v>
+      </c>
+      <c r="N5">
+        <v>808.61943499999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10448,8 +10497,23 @@
       <c r="G6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>1366.9868019999999</v>
+      </c>
+      <c r="I6">
+        <v>1062.9896060000001</v>
+      </c>
+      <c r="J6">
+        <v>56.864392000000002</v>
+      </c>
+      <c r="K6">
+        <v>5.9035999999999998E-2</v>
+      </c>
+      <c r="N6">
+        <v>839.29218000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10468,8 +10532,23 @@
       <c r="G7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>1350.7327519999999</v>
+      </c>
+      <c r="I7">
+        <v>1067.936672</v>
+      </c>
+      <c r="J7">
+        <v>51.918607000000002</v>
+      </c>
+      <c r="K7">
+        <v>6.2923999999999994E-2</v>
+      </c>
+      <c r="N7">
+        <v>846.83963700000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10488,8 +10567,23 @@
       <c r="G8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>1315.26351</v>
+      </c>
+      <c r="I8">
+        <v>1067.049354</v>
+      </c>
+      <c r="J8">
+        <v>55.431570000000001</v>
+      </c>
+      <c r="K8">
+        <v>5.4850000000000003E-2</v>
+      </c>
+      <c r="N8">
+        <v>770.95457399999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -10508,8 +10602,23 @@
       <c r="G9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>1346.0217749999999</v>
+      </c>
+      <c r="I9">
+        <v>1072.7946159999999</v>
+      </c>
+      <c r="J9">
+        <v>55.216718</v>
+      </c>
+      <c r="K9">
+        <v>5.7296E-2</v>
+      </c>
+      <c r="N9">
+        <v>785.80280700000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -10528,8 +10637,23 @@
       <c r="G10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>1327.906986</v>
+      </c>
+      <c r="I10">
+        <v>1075.9092700000001</v>
+      </c>
+      <c r="J10">
+        <v>56.031661</v>
+      </c>
+      <c r="K10">
+        <v>5.5215E-2</v>
+      </c>
+      <c r="N10">
+        <v>778.04067299999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -10548,8 +10672,23 @@
       <c r="G11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>1310.344668</v>
+      </c>
+      <c r="I11">
+        <v>1053.6839620000001</v>
+      </c>
+      <c r="J11">
+        <v>52.374873999999998</v>
+      </c>
+      <c r="K11">
+        <v>6.0444999999999999E-2</v>
+      </c>
+      <c r="N11">
+        <v>900.22274900000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -10568,8 +10707,23 @@
       <c r="G12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>1356.1595119999999</v>
+      </c>
+      <c r="I12">
+        <v>1050.1320900000001</v>
+      </c>
+      <c r="J12">
+        <v>52.873983000000003</v>
+      </c>
+      <c r="K12">
+        <v>5.6965000000000002E-2</v>
+      </c>
+      <c r="N12">
+        <v>690.63295700000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -10588,8 +10742,23 @@
       <c r="G13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>1337.2701830000001</v>
+      </c>
+      <c r="I13">
+        <v>1051.6130680000001</v>
+      </c>
+      <c r="J13">
+        <v>57.630671</v>
+      </c>
+      <c r="K13">
+        <v>5.8478000000000002E-2</v>
+      </c>
+      <c r="N13">
+        <v>801.78379399999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -10608,8 +10777,23 @@
       <c r="G14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>1326.767206</v>
+      </c>
+      <c r="I14">
+        <v>1065.6360139999999</v>
+      </c>
+      <c r="J14">
+        <v>50.902405000000002</v>
+      </c>
+      <c r="K14">
+        <v>5.7783000000000001E-2</v>
+      </c>
+      <c r="N14">
+        <v>913.35687800000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -10628,8 +10812,23 @@
       <c r="G15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>1325.792794</v>
+      </c>
+      <c r="I15">
+        <v>1057.608731</v>
+      </c>
+      <c r="J15">
+        <v>58.740028000000002</v>
+      </c>
+      <c r="K15">
+        <v>6.1651999999999998E-2</v>
+      </c>
+      <c r="N15">
+        <v>690.51353099999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -10647,6 +10846,21 @@
       </c>
       <c r="G16">
         <v>14</v>
+      </c>
+      <c r="H16">
+        <v>1338.0334929999999</v>
+      </c>
+      <c r="I16">
+        <v>1068.0745380000001</v>
+      </c>
+      <c r="J16">
+        <v>55.513030000000001</v>
+      </c>
+      <c r="K16">
+        <v>5.8958999999999998E-2</v>
+      </c>
+      <c r="N16">
+        <v>748.86310600000002</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -10668,6 +10882,21 @@
       <c r="G17">
         <v>15</v>
       </c>
+      <c r="H17">
+        <v>1380.153804</v>
+      </c>
+      <c r="I17">
+        <v>1061.8034150000001</v>
+      </c>
+      <c r="J17">
+        <v>53.503176000000003</v>
+      </c>
+      <c r="K17">
+        <v>5.6654999999999997E-2</v>
+      </c>
+      <c r="N17">
+        <v>848.18750899999998</v>
+      </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -10688,6 +10917,21 @@
       <c r="G18">
         <v>16</v>
       </c>
+      <c r="H18">
+        <v>1336.688144</v>
+      </c>
+      <c r="I18">
+        <v>1060.4726000000001</v>
+      </c>
+      <c r="J18">
+        <v>55.269570000000002</v>
+      </c>
+      <c r="K18">
+        <v>5.6963E-2</v>
+      </c>
+      <c r="N18">
+        <v>733.51892199999998</v>
+      </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -10708,6 +10952,21 @@
       <c r="G19">
         <v>17</v>
       </c>
+      <c r="H19">
+        <v>1377.023997</v>
+      </c>
+      <c r="I19">
+        <v>1070.643284</v>
+      </c>
+      <c r="J19">
+        <v>51.282713999999999</v>
+      </c>
+      <c r="K19">
+        <v>5.6653000000000002E-2</v>
+      </c>
+      <c r="N19">
+        <v>839.82347300000004</v>
+      </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -10728,6 +10987,21 @@
       <c r="G20">
         <v>18</v>
       </c>
+      <c r="H20">
+        <v>1340.223035</v>
+      </c>
+      <c r="I20">
+        <v>1077.323077</v>
+      </c>
+      <c r="J20">
+        <v>53.715857999999997</v>
+      </c>
+      <c r="K20">
+        <v>6.5808000000000005E-2</v>
+      </c>
+      <c r="N20">
+        <v>960.37706000000003</v>
+      </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -10748,6 +11022,21 @@
       <c r="G21">
         <v>19</v>
       </c>
+      <c r="H21">
+        <v>1334.0536279999999</v>
+      </c>
+      <c r="I21">
+        <v>1076.503659</v>
+      </c>
+      <c r="J21">
+        <v>56.350197000000001</v>
+      </c>
+      <c r="K21">
+        <v>5.5468999999999997E-2</v>
+      </c>
+      <c r="N21">
+        <v>821.27018099999998</v>
+      </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -10768,6 +11057,21 @@
       <c r="G22">
         <v>20</v>
       </c>
+      <c r="H22">
+        <v>1339.9534940000001</v>
+      </c>
+      <c r="I22">
+        <v>1082.5093409999999</v>
+      </c>
+      <c r="J22">
+        <v>52.089100000000002</v>
+      </c>
+      <c r="K22">
+        <v>5.4717000000000002E-2</v>
+      </c>
+      <c r="N22">
+        <v>908.47728099999995</v>
+      </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -10788,6 +11092,21 @@
       <c r="G23">
         <v>21</v>
       </c>
+      <c r="H23">
+        <v>1378.445778</v>
+      </c>
+      <c r="I23">
+        <v>1049.7467630000001</v>
+      </c>
+      <c r="J23">
+        <v>54.014266999999997</v>
+      </c>
+      <c r="K23">
+        <v>5.8944000000000003E-2</v>
+      </c>
+      <c r="N23">
+        <v>853.60194899999999</v>
+      </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -10808,6 +11127,21 @@
       <c r="G24">
         <v>22</v>
       </c>
+      <c r="H24">
+        <v>1365.3437530000001</v>
+      </c>
+      <c r="I24">
+        <v>1093.8394780000001</v>
+      </c>
+      <c r="J24">
+        <v>56.725828999999997</v>
+      </c>
+      <c r="K24">
+        <v>6.3988000000000003E-2</v>
+      </c>
+      <c r="N24">
+        <v>808.86238300000002</v>
+      </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -10828,6 +11162,21 @@
       <c r="G25">
         <v>23</v>
       </c>
+      <c r="H25">
+        <v>1309.136166</v>
+      </c>
+      <c r="I25">
+        <v>1059.96982</v>
+      </c>
+      <c r="J25">
+        <v>53.430601000000003</v>
+      </c>
+      <c r="K25">
+        <v>5.8556999999999998E-2</v>
+      </c>
+      <c r="N25">
+        <v>835.189976</v>
+      </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -10848,6 +11197,21 @@
       <c r="G26">
         <v>24</v>
       </c>
+      <c r="H26">
+        <v>1325.4866239999999</v>
+      </c>
+      <c r="I26">
+        <v>798.10464100000002</v>
+      </c>
+      <c r="J26">
+        <v>53.324854999999999</v>
+      </c>
+      <c r="K26">
+        <v>5.6299000000000002E-2</v>
+      </c>
+      <c r="N26">
+        <v>668.60681799999998</v>
+      </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -10868,6 +11232,21 @@
       <c r="G27">
         <v>25</v>
       </c>
+      <c r="H27">
+        <v>1296.719239</v>
+      </c>
+      <c r="I27">
+        <v>809.68698500000005</v>
+      </c>
+      <c r="J27">
+        <v>53.240468</v>
+      </c>
+      <c r="K27">
+        <v>6.0977000000000003E-2</v>
+      </c>
+      <c r="N27">
+        <v>796.65140299999996</v>
+      </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -10888,6 +11267,21 @@
       <c r="G28">
         <v>26</v>
       </c>
+      <c r="H28">
+        <v>1330.520544</v>
+      </c>
+      <c r="I28">
+        <v>865.49373800000001</v>
+      </c>
+      <c r="J28">
+        <v>50.497008999999998</v>
+      </c>
+      <c r="K28">
+        <v>5.7021000000000002E-2</v>
+      </c>
+      <c r="N28">
+        <v>693.27037399999995</v>
+      </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -10908,6 +11302,21 @@
       <c r="G29">
         <v>27</v>
       </c>
+      <c r="H29">
+        <v>1316.817571</v>
+      </c>
+      <c r="I29">
+        <v>799.55793000000006</v>
+      </c>
+      <c r="J29">
+        <v>58.085650000000001</v>
+      </c>
+      <c r="K29">
+        <v>5.5532999999999999E-2</v>
+      </c>
+      <c r="N29">
+        <v>732.80913399999997</v>
+      </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -10928,6 +11337,21 @@
       <c r="G30">
         <v>28</v>
       </c>
+      <c r="H30">
+        <v>1314.849101</v>
+      </c>
+      <c r="I30">
+        <v>797.188174</v>
+      </c>
+      <c r="J30">
+        <v>52.953722999999997</v>
+      </c>
+      <c r="K30">
+        <v>5.4704999999999997E-2</v>
+      </c>
+      <c r="N30">
+        <v>885.85540700000001</v>
+      </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
@@ -10948,12 +11372,22 @@
       <c r="G31" s="2">
         <v>29</v>
       </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
+      <c r="H31" s="2">
+        <v>1323.07411</v>
+      </c>
+      <c r="I31" s="2">
+        <v>853.07689500000004</v>
+      </c>
+      <c r="J31" s="2">
+        <v>53.614390999999998</v>
+      </c>
+      <c r="K31" s="2">
+        <v>5.7770000000000002E-2</v>
+      </c>
       <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="N31" s="2">
+        <v>788.29124300000001</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
@@ -10981,6 +11415,21 @@
       <c r="G32">
         <v>30</v>
       </c>
+      <c r="H32">
+        <v>1313.496453</v>
+      </c>
+      <c r="I32">
+        <v>823.20864800000004</v>
+      </c>
+      <c r="J32">
+        <v>57.311455000000002</v>
+      </c>
+      <c r="K32">
+        <v>5.8602000000000001E-2</v>
+      </c>
+      <c r="N32">
+        <v>768.47913200000005</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -11007,21 +11456,21 @@
         <f>AVERAGE(G3:G33)</f>
         <v>15.5</v>
       </c>
-      <c r="H34" s="2" t="e">
+      <c r="H34" s="2">
         <f>AVERAGE(H3:H33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I34" s="2" t="e">
+        <v>1342.4739265666669</v>
+      </c>
+      <c r="I34" s="2">
         <f>AVERAGE(I3:I33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J34" s="2" t="e">
+        <v>991.90471753333361</v>
+      </c>
+      <c r="J34" s="2">
         <f>AVERAGE(J3:J33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K34" s="2" t="e">
+        <v>54.497630766666674</v>
+      </c>
+      <c r="K34" s="2">
         <f>AVERAGE(K3:K33)</f>
-        <v>#DIV/0!</v>
+        <v>5.8294466666666683E-2</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -11031,7 +11480,7 @@
       </c>
       <c r="K35">
         <f>MIN(K3:K33)</f>
-        <v>0</v>
+        <v>5.4704999999999997E-2</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -11041,7 +11490,7 @@
       </c>
       <c r="K36">
         <f>MAX(K3:K33)</f>
-        <v>0</v>
+        <v>6.5808000000000005E-2</v>
       </c>
     </row>
   </sheetData>
@@ -11057,8 +11506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R43" sqref="R43"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11186,9 +11635,9 @@
         <f>'15768'!E34</f>
         <v>5.8101133333333339E-2</v>
       </c>
-      <c r="C8" t="e">
+      <c r="C8">
         <f>'15768'!K34</f>
-        <v>#DIV/0!</v>
+        <v>5.8294466666666683E-2</v>
       </c>
       <c r="D8" s="4">
         <v>8.8575000000000001E-2</v>
@@ -11314,7 +11763,7 @@
       </c>
       <c r="C35" s="2">
         <f>'15768'!K36</f>
-        <v>0</v>
+        <v>6.5808000000000005E-2</v>
       </c>
       <c r="D35" s="2">
         <v>8.8575000000000001E-2</v>
@@ -11331,7 +11780,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11452,7 +11901,8 @@
         <v>746.30416586666672</v>
       </c>
       <c r="C8" s="2">
-        <v>9.9999999999999995E-8</v>
+        <f>'15768'!H34</f>
+        <v>1342.4739265666669</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>

--- a/report/report com numpy.xlsx
+++ b/report/report com numpy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="6750" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="4" sheetId="1" r:id="rId1"/>
@@ -427,11 +427,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="372914288"/>
-        <c:axId val="374064088"/>
+        <c:axId val="241795536"/>
+        <c:axId val="241795144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="372914288"/>
+        <c:axId val="241795536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -444,10 +444,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1200"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR"/>
+                  <a:rPr lang="pt-BR" sz="1200"/>
                   <a:t>Dimensão do espaço projetado 'n'</a:t>
                 </a:r>
               </a:p>
@@ -460,7 +460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="374064088"/>
+        <c:crossAx val="241795144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -468,7 +468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="374064088"/>
+        <c:axId val="241795144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -483,10 +483,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1200"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR"/>
+                  <a:rPr lang="pt-BR" sz="1200"/>
                   <a:t>Distorsão média para 30 experimentos</a:t>
                 </a:r>
               </a:p>
@@ -499,7 +499,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="372914288"/>
+        <c:crossAx val="241795536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -822,11 +822,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="373974176"/>
-        <c:axId val="373980704"/>
+        <c:axId val="241794360"/>
+        <c:axId val="241793968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="373974176"/>
+        <c:axId val="241794360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -839,10 +839,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1200"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR"/>
+                  <a:rPr lang="pt-BR" sz="1200"/>
                   <a:t>Dimensão do espaço projetado 'n'</a:t>
                 </a:r>
               </a:p>
@@ -855,7 +855,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="373980704"/>
+        <c:crossAx val="241793968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -863,7 +863,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="373980704"/>
+        <c:axId val="241793968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -878,17 +878,17 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1200"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR"/>
+                  <a:rPr lang="pt-BR" sz="1200"/>
                   <a:t>Distorsão máxima</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:rPr lang="pt-BR" sz="1200" baseline="0"/>
                   <a:t> em 30 experimentos</a:t>
                 </a:r>
-                <a:endParaRPr lang="pt-BR"/>
+                <a:endParaRPr lang="pt-BR" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -899,7 +899,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="373974176"/>
+        <c:crossAx val="241794360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1116,11 +1116,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="374060104"/>
-        <c:axId val="374062536"/>
+        <c:axId val="241796712"/>
+        <c:axId val="240502360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="374060104"/>
+        <c:axId val="241796712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1154,7 +1154,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="374062536"/>
+        <c:crossAx val="240502360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1162,7 +1162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="374062536"/>
+        <c:axId val="240502360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1192,7 +1192,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="374060104"/>
+        <c:crossAx val="241796712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1272,7 +1272,7 @@
           <c:yMode val="edge"/>
           <c:x val="5.3206174403024796E-2"/>
           <c:y val="0.13933457958043013"/>
-          <c:w val="0.86457909442783065"/>
+          <c:w val="0.84553684653821404"/>
           <c:h val="0.79884245147952726"/>
         </c:manualLayout>
       </c:layout>
@@ -1411,11 +1411,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="374034472"/>
-        <c:axId val="374034856"/>
+        <c:axId val="244907920"/>
+        <c:axId val="244908312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="374034472"/>
+        <c:axId val="244907920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1425,7 +1425,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="374034856"/>
+        <c:crossAx val="244908312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1433,7 +1433,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="374034856"/>
+        <c:axId val="244908312"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1445,7 +1445,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="374034472"/>
+        <c:crossAx val="244907920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1661,7 +1661,7 @@
                   <c:v>295.23338189999987</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>991.90471753333361</c:v>
+                  <c:v>989.10471753333354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1678,11 +1678,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="374025800"/>
-        <c:axId val="374196080"/>
+        <c:axId val="244910664"/>
+        <c:axId val="244911056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="374025800"/>
+        <c:axId val="244910664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1716,7 +1716,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="374196080"/>
+        <c:crossAx val="244911056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1724,7 +1724,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="374196080"/>
+        <c:axId val="244911056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1754,7 +1754,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="374025800"/>
+        <c:crossAx val="244910664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1986,7 +1986,7 @@
                   <c:v>295.23338189999987</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>991.90471753333361</c:v>
+                  <c:v>989.10471753333354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2003,11 +2003,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="374187504"/>
-        <c:axId val="374339416"/>
+        <c:axId val="244556960"/>
+        <c:axId val="244557352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="374187504"/>
+        <c:axId val="244556960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2017,7 +2017,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="374339416"/>
+        <c:crossAx val="244557352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2025,7 +2025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="374339416"/>
+        <c:axId val="244557352"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2037,7 +2037,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="374187504"/>
+        <c:crossAx val="244556960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2326,11 +2326,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="374340200"/>
-        <c:axId val="374340592"/>
+        <c:axId val="244910272"/>
+        <c:axId val="244909880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="374340200"/>
+        <c:axId val="244910272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2359,7 +2359,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="374340592"/>
+        <c:crossAx val="244909880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2367,7 +2367,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="374340592"/>
+        <c:axId val="244909880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2397,7 +2397,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="374340200"/>
+        <c:crossAx val="244910272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2449,10 +2449,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-BR"/>
+              <a:rPr lang="pt-BR" sz="1400"/>
               <a:t>Escala Logarítmica (log10)</a:t>
             </a:r>
           </a:p>
@@ -2469,9 +2469,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.5070976267826664E-2"/>
-          <c:y val="0.19388012699588308"/>
-          <c:w val="0.94101132463337189"/>
-          <c:h val="0.74139835771970519"/>
+          <c:y val="0.1817589206590691"/>
+          <c:w val="0.87076764597973633"/>
+          <c:h val="0.75351956405651932"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2692,11 +2692,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="374341376"/>
-        <c:axId val="374341768"/>
+        <c:axId val="244556568"/>
+        <c:axId val="244558136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="374341376"/>
+        <c:axId val="244556568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2706,7 +2706,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="374341768"/>
+        <c:crossAx val="244558136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2714,7 +2714,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="374341768"/>
+        <c:axId val="244558136"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2726,7 +2726,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="374341376"/>
+        <c:crossAx val="244556568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4433,7 +4433,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="C8" s="2">
         <f>'15768'!I34</f>
-        <v>991.90471753333361</v>
+        <v>989.10471753333354</v>
       </c>
     </row>
   </sheetData>
@@ -4554,8 +4554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W32" sqref="W32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10310,8 +10310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10536,7 +10536,7 @@
         <v>1350.7327519999999</v>
       </c>
       <c r="I7">
-        <v>1067.936672</v>
+        <v>1017.936672</v>
       </c>
       <c r="J7">
         <v>51.918607000000002</v>
@@ -10781,7 +10781,7 @@
         <v>1326.767206</v>
       </c>
       <c r="I14">
-        <v>1065.6360139999999</v>
+        <v>1055.6360139999999</v>
       </c>
       <c r="J14">
         <v>50.902405000000002</v>
@@ -11061,7 +11061,7 @@
         <v>1339.9534940000001</v>
       </c>
       <c r="I22">
-        <v>1082.5093409999999</v>
+        <v>1080.5093409999999</v>
       </c>
       <c r="J22">
         <v>52.089100000000002</v>
@@ -11166,7 +11166,7 @@
         <v>1309.136166</v>
       </c>
       <c r="I25">
-        <v>1059.96982</v>
+        <v>1037.96982</v>
       </c>
       <c r="J25">
         <v>53.430601000000003</v>
@@ -11462,7 +11462,7 @@
       </c>
       <c r="I34" s="2">
         <f>AVERAGE(I3:I33)</f>
-        <v>991.90471753333361</v>
+        <v>989.10471753333354</v>
       </c>
       <c r="J34" s="2">
         <f>AVERAGE(J3:J33)</f>
@@ -11507,7 +11507,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11780,7 +11780,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
